--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetData\sandbox\jh\03_indicator_binning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D60CEF6-207F-4ED5-B5E7-412EE806CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA6CA4-2A66-47D9-85EC-979D733F3BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
   <si>
     <t>indicators</t>
   </si>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>threats to habitat; threats to Productivity</t>
+  </si>
+  <si>
+    <t>Recovery potential</t>
+  </si>
+  <si>
+    <t>webca</t>
+  </si>
+  <si>
+    <t>Number of haddock</t>
+  </si>
+  <si>
+    <t>biomass metrics; uniqueness</t>
   </si>
 </sst>
 </file>
@@ -728,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1694,6 +1706,34 @@
         <v>68</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FA6CA4-2A66-47D9-85EC-979D733F3BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0CF062-A081-4601-ABDD-F1D4A8C668F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="120">
   <si>
     <t>indicators</t>
   </si>
@@ -377,13 +377,19 @@
   </si>
   <si>
     <t>biomass metrics; uniqueness</t>
+  </si>
+  <si>
+    <t>Support productivity objectives for groundfish species of Aboriginal, commercial, and/or recreational importance, particularly NAFO Division 4VW haddock</t>
+  </si>
+  <si>
+    <t>Productivity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +408,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +448,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1734,6 +1750,20 @@
         <v>115</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0CF062-A081-4601-ABDD-F1D4A8C668F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA8500F-6A46-4353-A386-C77560C42004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="122">
   <si>
     <t>indicators</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>Productivity</t>
+  </si>
+  <si>
+    <t>Fishing effort</t>
+  </si>
+  <si>
+    <t>climate change</t>
   </si>
 </sst>
 </file>
@@ -756,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1764,6 +1770,34 @@
         <v>115</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA8500F-6A46-4353-A386-C77560C42004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D91138-4FF8-4383-8C97-77FB2BB3A1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,13 +382,13 @@
     <t>Support productivity objectives for groundfish species of Aboriginal, commercial, and/or recreational importance, particularly NAFO Division 4VW haddock</t>
   </si>
   <si>
-    <t>Productivity</t>
-  </si>
-  <si>
     <t>Fishing effort</t>
   </si>
   <si>
     <t>climate change</t>
+  </si>
+  <si>
+    <t>biomass metrics</t>
   </si>
 </sst>
 </file>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1764,7 +1764,7 @@
         <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
         <v>115</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
         <v>115</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
         <v>115</v>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D91138-4FF8-4383-8C97-77FB2BB3A1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5905251A-1F2F-4DF3-B20A-A14FACEE1A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="169">
   <si>
     <t>indicators</t>
   </si>
@@ -389,13 +389,165 @@
   </si>
   <si>
     <t>biomass metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical conditions (e.g. temperature, salinity, light levels, wind, sea-surface height) within the MR (surface and bottom) and both upstream and downstream, as measured on the AZMP’s line. </t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical conditions (e.g., oxygen concentration, pH, nutrients) within the MR (surface and bottom) and both upstream and downstream, as measured on the AZMP’s line. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal current, wave and tidal dynamics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extent of ice cover within and around the MR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biological (e.g. ocean colour, chlorophyll a, pigments) sea surface properties in the MR and the surrounding region. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytoplankton production and the timing and intensity of the spring bloom in the MR and the surrounding region. </t>
+  </si>
+  <si>
+    <t>biodiversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blooms of harmful algal in or near the MR. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zooplankton biomass and community composition within the MR and both upstream and downstream, as measured on the AZMP’s lines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krill biomass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversity and community composition of the benthos, abundance or biomass and size composition of selected benthic taxa </t>
+  </si>
+  <si>
+    <t>species diversity</t>
+  </si>
+  <si>
+    <t>Diversity and community composition of the benthos, abundance or biomass and size composition of selected benthic taxa and characteristics of surficial geology at comparable sampling stations outside the MR</t>
+  </si>
+  <si>
+    <t>Spatial extent of identified distinctive seabed features of the MR</t>
+  </si>
+  <si>
+    <t>Population-wide abundances and size distributions of those populations of resource species which utilize the MR, as determined by fishery stock assessments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative abundances, biomasses, size distributions and population fecundities of selected groundfish and invertebrates, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative abundances, biomasses, size distributions and population fecundities of selected longline-vulnerable species in appropriate portions of the MR, as determined by sentinel-fishery and halibut surveys. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative abundances, biomasses, size distributions and population fecundities of selected longline-vulnerable species in comparable areas outside the MR, as determined by sentinel-fishery and halibut surveys. </t>
+  </si>
+  <si>
+    <t>Cetacean presence and activity in the MR, year-round</t>
+  </si>
+  <si>
+    <t>Distributions, relative abundances, diversity, community composition and activities of mammals, birds and reptiles in the MR</t>
+  </si>
+  <si>
+    <t>Grey and harp seal breeding in the vicinity of the MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seabird nesting in the vicinity of the MR. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trophic relationships in the MR </t>
+  </si>
+  <si>
+    <t>structure and function; functional diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecosystem function in the MR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic intensity. Number and speeds of transits of, or past, the MR by vessels other than pleasure craft, broken down into naval vessels, fishing vessels not fishing in the MR, and other vessels. </t>
+  </si>
+  <si>
+    <t>Hours of operation within the MPA by vessels other than commercial fishing vessels or pleasure craft, broken down into research and monitoring vessels, other government vessels, ecotourism vessels, and all others</t>
+  </si>
+  <si>
+    <t>Commercial and recreational fishing effort within the MR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unauthorized fishing activity within the MR. </t>
+  </si>
+  <si>
+    <t>Seabed area within the MR swept by bottom-tending mobile commercial fishing, research and monitoring gears, both as a total and subdivided by zone or seabed habitat type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seabed area within the MR occupied by bottom-set commercial fishing, research and monitoring traps, both as a total and subdivided by zone or seabed habitat type. </t>
+  </si>
+  <si>
+    <t>Length of bottom-set fixed commercial fishing, research and monitoring lines set within the MR, both as totals and subdivided by zone or seabed habitat type</t>
+  </si>
+  <si>
+    <t>Number of vertical lines and length of midwater lines set within the MR as part of commercial fishing, research or monitoring gears, both as a total and subdivided by zone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantities and types of baits introduced to the MR as part of commercial fishing, research or monitoring gears, both as a total and subdivided by zone. </t>
+  </si>
+  <si>
+    <r>
+      <t>Quantities of target and bycatch organisms removed from or discarded within the MR by commercial, recreational, research and monitoring fishing, subdivided by type of organism and the nature of the human activity.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Number and types of seabed cables, offshore-petroleum exploration and development activities, other mineral exploration and development activities, channel dredging projects or other large-scale engineering works in the general vicinity of the MR, including any within the MR itself</t>
+  </si>
+  <si>
+    <t>Incidents of vessels anchoring within the MR</t>
+  </si>
+  <si>
+    <t>Number of ballast-water exchanges within or in proximity to the MR</t>
+  </si>
+  <si>
+    <t>Number, quantities and types of other discharges from vessels of all kinds or from offshore Installations within or in proximity to the MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types and concentrations of contaminants (including organic chemicals, heavy metals and plastics) in the biota, water column and seabed of the MR, including contaminants derived from unexploded ordinance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity of large floating anthropogenic debris in the MR. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity of anthropogenic debris on the seabed of the MR. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidents of whale or turtle entanglement, ship strikes or other interactions with humans in the MR. </t>
+  </si>
+  <si>
+    <t>Incidents of whale or turtle strandings adjacent to the MR</t>
+  </si>
+  <si>
+    <t>Reports of known invasive species in the MR and spread of established invasive species towards the MR</t>
+  </si>
+  <si>
+    <t>Characterization of deep-water natural and anthropogenic noise within the MR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +577,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -446,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,6 +627,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,6 +1969,608 @@
         <v>68</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C76" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B89" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>75</v>
+      </c>
+      <c r="D110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>75</v>
+      </c>
+      <c r="D115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5905251A-1F2F-4DF3-B20A-A14FACEE1A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12140CF3-7BBF-44C4-81AB-E45D7D4E3994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
   <si>
     <t>indicators</t>
   </si>
@@ -541,6 +541,42 @@
   </si>
   <si>
     <t>Characterization of deep-water natural and anthropogenic noise within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. surface temperature) within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. bottom temperature) within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. surface salinity) within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. bottom salinity) within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. surface light) within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. bottom light) within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. surface wind) within the MR</t>
+  </si>
+  <si>
+    <t>Physical conditions (e.g. sea surface height) within the MR</t>
+  </si>
+  <si>
+    <t>Biological conditions (e.g. surface chlorophyl) within the MR</t>
+  </si>
+  <si>
+    <t>Biological conditions (e.g. surface nitrate) within the MR</t>
+  </si>
+  <si>
+    <t>Biological conditions (e.g. surface phosphate) within the MR</t>
+  </si>
+  <si>
+    <t>Biological conditions (e.g. surface silicate) within the MR</t>
   </si>
 </sst>
 </file>
@@ -933,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2571,6 +2607,174 @@
         <v>68</v>
       </c>
     </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118" t="s">
+        <v>123</v>
+      </c>
+      <c r="D118" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" t="s">
+        <v>115</v>
+      </c>
+      <c r="C122" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123" t="s">
+        <v>123</v>
+      </c>
+      <c r="D123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+      <c r="D124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" t="s">
+        <v>123</v>
+      </c>
+      <c r="D125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" t="s">
+        <v>123</v>
+      </c>
+      <c r="D126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" t="s">
+        <v>123</v>
+      </c>
+      <c r="D127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7187E8A2-2C57-4B44-8BE0-9E1EBA6845F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96589E00-EAD3-42E3-A0AC-9A70A46A1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,22 +541,22 @@
     <t>sea surface height</t>
   </si>
   <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="nitrate", type="surface")'</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="salinity", type="surface", dataframe=TRUE)'</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="chlorophyll", type="surface")'</t>
-  </si>
-  <si>
-    <t>plot_rv_abundance(RV_ABUNDANCE[[which(names(RV_ABUNDANCE) == 'WEBCA')]][[which(species == 'HADDOCK')]])'</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="temperature", type="surface", dataframe=TRUE)'</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs, type=NULL, parameter="sea_surface_height")'</t>
+    <t>plot_azmp_physical(mpa=MPAs,parameter="nitrate", type="surface")</t>
+  </si>
+  <si>
+    <t>plot_azmp_physical(mpa=MPAs,parameter="salinity", type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>plot_azmp_physical(mpa=MPAs,parameter="chlorophyll", type="surface")</t>
+  </si>
+  <si>
+    <t>plot_azmp_physical(mpa=MPAs,parameter="temperature", type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>plot_azmp_physical(mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
+  </si>
+  <si>
+    <t>plot_rv_abundance(RV_ABUNDANCE[[which(names(RV_ABUNDANCE) == 'WEBCA')]][[which(species == 'HADDOCK')]])</t>
   </si>
 </sst>
 </file>
@@ -962,10 +962,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="C105" sqref="C105"/>
+      <selection pane="topRight" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2888,7 +2888,7 @@
         <v>168</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
         <v>169</v>
@@ -3228,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>169</v>
@@ -3248,7 +3248,7 @@
         <v>59</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F114" t="s">
         <v>169</v>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96589E00-EAD3-42E3-A0AC-9A70A46A1422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86463E0-5FAC-451F-B179-4DB4BBA1998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="178">
   <si>
     <t>indicators</t>
   </si>
@@ -965,7 +965,7 @@
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="E114" sqref="E114"/>
+      <selection pane="topRight" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2766,7 +2766,9 @@
       <c r="C90" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="E90">
         <v>0</v>
       </c>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86463E0-5FAC-451F-B179-4DB4BBA1998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBA5A2-63CF-429C-85D6-2F40E4F2A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
     <t>plot_azmp_physical(mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
   </si>
   <si>
-    <t>plot_rv_abundance(RV_ABUNDANCE[[which(names(RV_ABUNDANCE) == 'WEBCA')]][[which(species == 'HADDOCK')]])</t>
+    <t>plot_rv_abundance(ABUNDANCE_RV[[which(names(ABUNDANCE_RV) == 'WEBCA')]][[which(species == 'HADDOCK')]])</t>
   </si>
 </sst>
 </file>
@@ -965,7 +965,7 @@
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="E90" sqref="E90"/>
+      <selection pane="topRight" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBA5A2-63CF-429C-85D6-2F40E4F2A7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD1150-811C-481D-A3EC-9E7998546D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="178">
   <si>
     <t>indicators</t>
   </si>
@@ -556,7 +556,7 @@
     <t>plot_azmp_physical(mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
   </si>
   <si>
-    <t>plot_rv_abundance(ABUNDANCE_RV[[which(names(ABUNDANCE_RV) == 'WEBCA')]][[which(species == 'HADDOCK')]])</t>
+    <t>Mean temperature of catch</t>
   </si>
 </sst>
 </file>
@@ -960,12 +960,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="A108" sqref="A108"/>
+      <selection pane="topRight" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3249,10 +3249,30 @@
       <c r="D114" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F114" t="s">
+      <c r="B115" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" s="7" t="s">
         <v>169</v>
       </c>
     </row>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFD1150-811C-481D-A3EC-9E7998546D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305980F-1504-40BA-BCA9-2BBA2AD7EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="179">
   <si>
     <t>indicators</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>Mean temperature of catch</t>
+  </si>
+  <si>
+    <t>plot_azmp_physical(mpa=MPAs, type=NULL, parameter="Zooplankton")</t>
   </si>
 </sst>
 </file>
@@ -962,10 +965,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="C105" sqref="C105"/>
+      <selection pane="topRight" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2373,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0305980F-1504-40BA-BCA9-2BBA2AD7EBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5CD74A-0A43-496E-9B71-311829AD2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="185">
   <si>
     <t>indicators</t>
   </si>
@@ -373,9 +373,6 @@
     <t>Distribution and abundance of seabird species within the MPA</t>
   </si>
   <si>
-    <t>Fish Condition</t>
-  </si>
-  <si>
     <t>Groundfish /commercial landings</t>
   </si>
   <si>
@@ -541,25 +538,46 @@
     <t>sea surface height</t>
   </si>
   <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="nitrate", type="surface")</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="salinity", type="surface", dataframe=TRUE)</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="chlorophyll", type="surface")</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs,parameter="temperature", type="surface", dataframe=TRUE)</t>
-  </si>
-  <si>
-    <t>plot_azmp_physical(mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
-  </si>
-  <si>
     <t>Mean temperature of catch</t>
   </si>
   <si>
-    <t>plot_azmp_physical(mpa=MPAs, type=NULL, parameter="Zooplankton")</t>
+    <t>plot_trend_status(mpa=MPAs, type=NULL, parameter="Zooplankton")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs,parameter="nitrate", type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs,parameter="salinity", type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs,parameter="chlorophyll", type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs,parameter="temperature", type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
+  </si>
+  <si>
+    <t>Fish Condition Length</t>
+  </si>
+  <si>
+    <t>Fish Condition Weight</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_weight", GS=gsdet)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_length", GS=gsdet)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_abundance")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_biomass")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(mpa=MPAs,parameter="bloom_amplitude", type="surface")</t>
   </si>
 </sst>
 </file>
@@ -963,12 +981,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="F68" sqref="F68"/>
+      <selection pane="topRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,10 +1011,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1016,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1036,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1056,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1076,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1096,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1116,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1136,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1156,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1176,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1196,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1216,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1236,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1256,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1276,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1296,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1316,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1336,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1356,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1376,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1396,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1416,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1436,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1456,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1476,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1496,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1516,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1536,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1556,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1576,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1596,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1616,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1636,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1656,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1676,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1696,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1716,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1736,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1756,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1776,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1796,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1816,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1836,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1856,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1876,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1896,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1916,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1936,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1956,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1976,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1996,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -2016,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -2036,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -2056,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -2076,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -2096,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2116,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -2136,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2156,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2176,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -2196,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -2216,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -2256,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2276,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -2296,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2316,172 +2334,172 @@
         <v>0</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68" t="s">
-        <v>169</v>
+      <c r="F68" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="E70" t="s">
+        <v>181</v>
       </c>
       <c r="F70" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="F74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>172</v>
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>59</v>
@@ -2490,18 +2508,18 @@
         <v>14</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>59</v>
@@ -2510,18 +2528,18 @@
         <v>14</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>59</v>
@@ -2530,18 +2548,18 @@
         <v>14</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="F78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>59</v>
@@ -2550,18 +2568,18 @@
         <v>14</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>59</v>
@@ -2570,18 +2588,18 @@
         <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>59</v>
@@ -2590,18 +2608,18 @@
         <v>14</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>59</v>
@@ -2610,18 +2628,18 @@
         <v>14</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>59</v>
@@ -2632,16 +2650,16 @@
       <c r="D83" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E83">
-        <v>0</v>
+      <c r="E83" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="F83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>59</v>
@@ -2650,44 +2668,44 @@
         <v>14</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="E84" t="s">
+        <v>184</v>
       </c>
       <c r="F84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>59</v>
@@ -2696,18 +2714,18 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>59</v>
@@ -2716,252 +2734,252 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="9">
+        <v>167</v>
+      </c>
+      <c r="E93">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E94">
+        <v>15</v>
+      </c>
+      <c r="E94" s="9">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>175</v>
+      <c r="E96">
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>59</v>
@@ -2970,18 +2988,18 @@
         <v>33</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>59</v>
@@ -2990,18 +3008,18 @@
         <v>33</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>59</v>
@@ -3010,58 +3028,58 @@
         <v>33</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>59</v>
@@ -3070,18 +3088,18 @@
         <v>37</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>59</v>
@@ -3090,18 +3108,18 @@
         <v>37</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>59</v>
@@ -3110,18 +3128,18 @@
         <v>37</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>59</v>
@@ -3136,12 +3154,12 @@
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>59</v>
@@ -3150,18 +3168,18 @@
         <v>37</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>59</v>
@@ -3170,18 +3188,18 @@
         <v>37</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>59</v>
@@ -3190,93 +3208,113 @@
         <v>37</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="8" t="s">
+      <c r="D113" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="B116" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>60</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E114" s="9">
-        <v>0</v>
-      </c>
-      <c r="F114" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>169</v>
+      <c r="D116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5CD74A-0A43-496E-9B71-311829AD2600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224A0FC6-89F6-4E8A-B07E-96942EB79A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,10 +983,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="E84" sqref="E84"/>
+      <selection pane="topRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224A0FC6-89F6-4E8A-B07E-96942EB79A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBE19B-2356-470D-8144-E5542BEF55D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="190">
   <si>
     <t>indicators</t>
   </si>
@@ -578,6 +578,21 @@
   </si>
   <si>
     <t>plot_trend_status(mpa=MPAs,parameter="bloom_amplitude", type="surface")</t>
+  </si>
+  <si>
+    <t>desired_state</t>
+  </si>
+  <si>
+    <t>desired</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>stable</t>
   </si>
 </sst>
 </file>
@@ -981,12 +996,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="E71" sqref="E71"/>
+      <selection pane="topRight" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,7 +1012,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1031,11 @@
       <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1036,8 +1054,11 @@
       <c r="F2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1056,8 +1077,11 @@
       <c r="F3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1076,8 +1100,11 @@
       <c r="F4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1096,8 +1123,11 @@
       <c r="F5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1116,8 +1146,11 @@
       <c r="F6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1136,8 +1169,11 @@
       <c r="F7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1156,8 +1192,11 @@
       <c r="F8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1176,8 +1215,11 @@
       <c r="F9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1196,8 +1238,11 @@
       <c r="F10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1216,8 +1261,11 @@
       <c r="F11" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1236,8 +1284,11 @@
       <c r="F12" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1256,8 +1307,11 @@
       <c r="F13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1276,8 +1330,11 @@
       <c r="F14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1296,8 +1353,11 @@
       <c r="F15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1316,8 +1376,11 @@
       <c r="F16" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1336,8 +1399,11 @@
       <c r="F17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1356,8 +1422,11 @@
       <c r="F18" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1376,8 +1445,11 @@
       <c r="F19" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1396,8 +1468,11 @@
       <c r="F20" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1416,8 +1491,11 @@
       <c r="F21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -1436,8 +1514,11 @@
       <c r="F22" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1456,8 +1537,11 @@
       <c r="F23" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1476,8 +1560,11 @@
       <c r="F24" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1496,8 +1583,11 @@
       <c r="F25" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1516,8 +1606,11 @@
       <c r="F26" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1536,8 +1629,11 @@
       <c r="F27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1556,8 +1652,11 @@
       <c r="F28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1576,8 +1675,11 @@
       <c r="F29" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1596,8 +1698,11 @@
       <c r="F30" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1616,8 +1721,11 @@
       <c r="F31" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1636,8 +1744,11 @@
       <c r="F32" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1656,8 +1767,11 @@
       <c r="F33" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1676,8 +1790,11 @@
       <c r="F34" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1696,8 +1813,11 @@
       <c r="F35" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1716,8 +1836,11 @@
       <c r="F36" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -1736,8 +1859,11 @@
       <c r="F37" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -1756,8 +1882,11 @@
       <c r="F38" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1776,8 +1905,11 @@
       <c r="F39" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -1796,8 +1928,11 @@
       <c r="F40" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -1816,8 +1951,11 @@
       <c r="F41" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -1836,8 +1974,11 @@
       <c r="F42" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -1856,8 +1997,11 @@
       <c r="F43" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -1876,8 +2020,11 @@
       <c r="F44" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -1896,8 +2043,11 @@
       <c r="F45" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -1916,8 +2066,11 @@
       <c r="F46" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -1936,8 +2089,11 @@
       <c r="F47" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -1956,8 +2112,11 @@
       <c r="F48" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -1976,8 +2135,11 @@
       <c r="F49" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -1996,8 +2158,11 @@
       <c r="F50" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2016,8 +2181,11 @@
       <c r="F51" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2036,8 +2204,11 @@
       <c r="F52" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2056,8 +2227,11 @@
       <c r="F53" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -2076,8 +2250,11 @@
       <c r="F54" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2096,8 +2273,11 @@
       <c r="F55" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2116,8 +2296,11 @@
       <c r="F56" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="G56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -2136,8 +2319,11 @@
       <c r="F57" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2156,8 +2342,11 @@
       <c r="F58" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -2176,8 +2365,11 @@
       <c r="F59" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -2196,8 +2388,11 @@
       <c r="F60" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2216,8 +2411,11 @@
       <c r="F61" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2236,8 +2434,11 @@
       <c r="F62" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2256,8 +2457,11 @@
       <c r="F63" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2276,8 +2480,11 @@
       <c r="F64" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -2296,8 +2503,11 @@
       <c r="F65" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2316,8 +2526,11 @@
       <c r="F66" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
@@ -2336,8 +2549,11 @@
       <c r="F67" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>179</v>
       </c>
@@ -2350,14 +2566,17 @@
       <c r="D68" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E68">
-        <v>0</v>
+      <c r="E68" t="s">
+        <v>180</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>178</v>
       </c>
@@ -2371,13 +2590,16 @@
         <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
@@ -2390,14 +2612,17 @@
       <c r="D70" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E70" t="s">
-        <v>181</v>
+      <c r="E70" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="F70" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G70" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
@@ -2416,8 +2641,11 @@
       <c r="F71" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>118</v>
       </c>
@@ -2436,8 +2664,11 @@
       <c r="F72" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
@@ -2456,8 +2687,11 @@
       <c r="F73" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -2476,8 +2710,11 @@
       <c r="F74" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>121</v>
       </c>
@@ -2496,8 +2733,11 @@
       <c r="F75" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
@@ -2516,8 +2756,11 @@
       <c r="F76" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
@@ -2536,8 +2779,11 @@
       <c r="F77" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
@@ -2556,8 +2802,11 @@
       <c r="F78" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>125</v>
       </c>
@@ -2576,8 +2825,11 @@
       <c r="F79" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>126</v>
       </c>
@@ -2596,8 +2848,11 @@
       <c r="F80" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>127</v>
       </c>
@@ -2616,8 +2871,11 @@
       <c r="F81" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G81" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
@@ -2636,8 +2894,11 @@
       <c r="F82" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G82" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
@@ -2656,8 +2917,11 @@
       <c r="F83" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>130</v>
       </c>
@@ -2676,8 +2940,11 @@
       <c r="F84" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>131</v>
       </c>
@@ -2696,8 +2963,11 @@
       <c r="F85" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -2716,8 +2986,11 @@
       <c r="F86" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G86" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>133</v>
       </c>
@@ -2736,8 +3009,11 @@
       <c r="F87" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>134</v>
       </c>
@@ -2756,8 +3032,11 @@
       <c r="F88" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G88" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>135</v>
       </c>
@@ -2776,8 +3055,11 @@
       <c r="F89" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G89" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>136</v>
       </c>
@@ -2796,8 +3078,11 @@
       <c r="F90" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
@@ -2816,8 +3101,11 @@
       <c r="F91" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G91" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>138</v>
       </c>
@@ -2836,8 +3124,11 @@
       <c r="F92" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G92" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -2856,8 +3147,11 @@
       <c r="F93" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G93" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -2876,8 +3170,11 @@
       <c r="F94" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
@@ -2896,8 +3193,11 @@
       <c r="F95" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>142</v>
       </c>
@@ -2916,8 +3216,11 @@
       <c r="F96" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>143</v>
       </c>
@@ -2936,8 +3239,11 @@
       <c r="F97" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>144</v>
       </c>
@@ -2956,8 +3262,11 @@
       <c r="F98" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G98" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>145</v>
       </c>
@@ -2976,8 +3285,11 @@
       <c r="F99" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G99" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -2996,8 +3308,11 @@
       <c r="F100" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>147</v>
       </c>
@@ -3016,8 +3331,11 @@
       <c r="F101" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G101" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>148</v>
       </c>
@@ -3036,8 +3354,11 @@
       <c r="F102" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>149</v>
       </c>
@@ -3056,8 +3377,11 @@
       <c r="F103" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -3076,8 +3400,11 @@
       <c r="F104" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>151</v>
       </c>
@@ -3096,8 +3423,11 @@
       <c r="F105" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>152</v>
       </c>
@@ -3116,8 +3446,11 @@
       <c r="F106" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>153</v>
       </c>
@@ -3136,8 +3469,11 @@
       <c r="F107" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G107" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>154</v>
       </c>
@@ -3156,8 +3492,11 @@
       <c r="F108" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G108" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>155</v>
       </c>
@@ -3176,8 +3515,11 @@
       <c r="F109" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G109" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>156</v>
       </c>
@@ -3196,8 +3538,11 @@
       <c r="F110" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G110" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>157</v>
       </c>
@@ -3216,8 +3561,11 @@
       <c r="F111" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>158</v>
       </c>
@@ -3236,8 +3584,11 @@
       <c r="F112" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>159</v>
       </c>
@@ -3256,8 +3607,11 @@
       <c r="F113" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G113" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>170</v>
       </c>
@@ -3276,8 +3630,11 @@
       <c r="F114" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -3296,8 +3653,11 @@
       <c r="F115" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>171</v>
       </c>
@@ -3315,6 +3675,9 @@
       </c>
       <c r="F116" s="7" t="s">
         <v>168</v>
+      </c>
+      <c r="G116" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBE19B-2356-470D-8144-E5542BEF55D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDAAA5-F53E-449F-87E4-1E54C249CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="191">
   <si>
     <t>indicators</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>stable</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1001,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="I83" sqref="I83"/>
+      <selection pane="topRight" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2613,7 +2616,7 @@
         <v>167</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="F70" t="s">
         <v>168</v>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDAAA5-F53E-449F-87E4-1E54C249CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9E988-847B-4479-A98C-0DA4CD1D0735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="192">
   <si>
     <t>indicators</t>
   </si>
@@ -541,45 +541,12 @@
     <t>Mean temperature of catch</t>
   </si>
   <si>
-    <t>plot_trend_status(mpa=MPAs, type=NULL, parameter="Zooplankton")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs,parameter="nitrate", type="surface")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs,parameter="salinity", type="surface", dataframe=TRUE)</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs,parameter="chlorophyll", type="surface")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs,parameter="temperature", type="surface", dataframe=TRUE)</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
-  </si>
-  <si>
     <t>Fish Condition Length</t>
   </si>
   <si>
     <t>Fish Condition Weight</t>
   </si>
   <si>
-    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_weight", GS=gsdet)</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_length", GS=gsdet)</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_abundance")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_biomass")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(mpa=MPAs,parameter="bloom_amplitude", type="surface")</t>
-  </si>
-  <si>
     <t>desired_state</t>
   </si>
   <si>
@@ -596,6 +563,42 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=gsdet, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_weight")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=gsdet, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_length")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=zooplankton, mpa=MPAs, type=NULL, parameter="Zooplankton")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=all_haddock, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_biomass")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=all_haddock, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_abundance")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=azmpdata::Discrete_occupations_sections, mpa=MPAs,parameter="nitrate", type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=bloom_df, mpa=MPAs,parameter="bloom_amplitude", type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="salinity", type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="chlorophyll", type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="temperature", type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=surface_height, mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
   </si>
 </sst>
 </file>
@@ -999,12 +1002,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="H76" sqref="H76"/>
+      <selection pane="topRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1015,7 +1018,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,10 +1038,13 @@
         <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1058,10 +1064,13 @@
         <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1081,10 +1090,13 @@
         <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1104,10 +1116,13 @@
         <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1127,10 +1142,13 @@
         <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1150,10 +1168,13 @@
         <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1173,10 +1194,13 @@
         <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1196,10 +1220,13 @@
         <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1219,10 +1246,13 @@
         <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1242,10 +1272,13 @@
         <v>168</v>
       </c>
       <c r="G10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1265,10 +1298,13 @@
         <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1288,10 +1324,13 @@
         <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1311,10 +1350,13 @@
         <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1334,10 +1376,13 @@
         <v>168</v>
       </c>
       <c r="G14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1357,10 +1402,13 @@
         <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1380,10 +1428,13 @@
         <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1403,10 +1454,13 @@
         <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1426,10 +1480,13 @@
         <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1449,10 +1506,13 @@
         <v>168</v>
       </c>
       <c r="G19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1472,10 +1532,13 @@
         <v>168</v>
       </c>
       <c r="G20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1495,10 +1558,13 @@
         <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -1518,10 +1584,13 @@
         <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1541,10 +1610,13 @@
         <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1564,10 +1636,13 @@
         <v>168</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1587,10 +1662,13 @@
         <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1610,10 +1688,13 @@
         <v>168</v>
       </c>
       <c r="G26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1633,10 +1714,13 @@
         <v>168</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1656,10 +1740,13 @@
         <v>168</v>
       </c>
       <c r="G28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1679,10 +1766,13 @@
         <v>168</v>
       </c>
       <c r="G29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1702,10 +1792,13 @@
         <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1725,10 +1818,13 @@
         <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1748,10 +1844,13 @@
         <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1771,10 +1870,13 @@
         <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1794,10 +1896,13 @@
         <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1817,10 +1922,13 @@
         <v>168</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -1840,10 +1948,13 @@
         <v>168</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -1863,10 +1974,13 @@
         <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -1886,10 +2000,13 @@
         <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1909,10 +2026,13 @@
         <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -1932,10 +2052,13 @@
         <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -1955,10 +2078,13 @@
         <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -1978,10 +2104,13 @@
         <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2001,10 +2130,13 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2024,10 +2156,13 @@
         <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -2047,10 +2182,13 @@
         <v>168</v>
       </c>
       <c r="G45" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2070,10 +2208,13 @@
         <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2093,10 +2234,13 @@
         <v>168</v>
       </c>
       <c r="G47" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2116,10 +2260,13 @@
         <v>168</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2139,10 +2286,13 @@
         <v>168</v>
       </c>
       <c r="G49" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -2162,10 +2312,13 @@
         <v>168</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2185,10 +2338,13 @@
         <v>168</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2208,10 +2364,13 @@
         <v>168</v>
       </c>
       <c r="G52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2231,10 +2390,13 @@
         <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -2254,10 +2416,13 @@
         <v>168</v>
       </c>
       <c r="G54" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2277,10 +2442,13 @@
         <v>168</v>
       </c>
       <c r="G55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2300,10 +2468,13 @@
         <v>168</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -2323,10 +2494,13 @@
         <v>168</v>
       </c>
       <c r="G57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2346,10 +2520,13 @@
         <v>168</v>
       </c>
       <c r="G58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -2369,10 +2546,13 @@
         <v>168</v>
       </c>
       <c r="G59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -2392,10 +2572,13 @@
         <v>168</v>
       </c>
       <c r="G60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2415,10 +2598,13 @@
         <v>168</v>
       </c>
       <c r="G61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2438,10 +2624,13 @@
         <v>168</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2461,10 +2650,13 @@
         <v>168</v>
       </c>
       <c r="G63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2484,10 +2676,13 @@
         <v>168</v>
       </c>
       <c r="G64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -2507,10 +2702,13 @@
         <v>168</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2530,10 +2728,13 @@
         <v>168</v>
       </c>
       <c r="G66" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
@@ -2553,12 +2754,15 @@
         <v>168</v>
       </c>
       <c r="G67" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>59</v>
@@ -2570,18 +2774,21 @@
         <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G68" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H68">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>59</v>
@@ -2593,16 +2800,19 @@
         <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F69" t="s">
         <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H69">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
@@ -2616,16 +2826,19 @@
         <v>167</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
         <v>168</v>
       </c>
       <c r="G70" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
@@ -2639,16 +2852,19 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="F71" t="s">
         <v>168</v>
       </c>
       <c r="G71" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H71">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>118</v>
       </c>
@@ -2668,10 +2884,13 @@
         <v>168</v>
       </c>
       <c r="G72" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
@@ -2685,16 +2904,19 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F73" t="s">
         <v>168</v>
       </c>
       <c r="G73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H73">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -2708,16 +2930,19 @@
         <v>167</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
         <v>168</v>
       </c>
       <c r="G74" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H74">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>121</v>
       </c>
@@ -2737,10 +2962,13 @@
         <v>168</v>
       </c>
       <c r="G75" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
@@ -2754,16 +2982,19 @@
         <v>167</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
         <v>168</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H76">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
@@ -2783,10 +3014,13 @@
         <v>168</v>
       </c>
       <c r="G77" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
@@ -2800,16 +3034,19 @@
         <v>167</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="F78" t="s">
         <v>168</v>
       </c>
       <c r="G78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="H78">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>125</v>
       </c>
@@ -2829,10 +3066,13 @@
         <v>168</v>
       </c>
       <c r="G79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>126</v>
       </c>
@@ -2852,10 +3092,13 @@
         <v>168</v>
       </c>
       <c r="G80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>127</v>
       </c>
@@ -2875,10 +3118,13 @@
         <v>168</v>
       </c>
       <c r="G81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
@@ -2898,10 +3144,13 @@
         <v>168</v>
       </c>
       <c r="G82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
@@ -2915,16 +3164,19 @@
         <v>24</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F83" t="s">
         <v>168</v>
       </c>
       <c r="G83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H83">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>130</v>
       </c>
@@ -2938,16 +3190,19 @@
         <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F84" t="s">
         <v>168</v>
       </c>
       <c r="G84" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+      <c r="H84">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>131</v>
       </c>
@@ -2967,10 +3222,13 @@
         <v>168</v>
       </c>
       <c r="G85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -2990,10 +3248,13 @@
         <v>168</v>
       </c>
       <c r="G86" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>133</v>
       </c>
@@ -3013,10 +3274,13 @@
         <v>168</v>
       </c>
       <c r="G87" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>134</v>
       </c>
@@ -3036,10 +3300,13 @@
         <v>168</v>
       </c>
       <c r="G88" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>135</v>
       </c>
@@ -3059,10 +3326,13 @@
         <v>168</v>
       </c>
       <c r="G89" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>136</v>
       </c>
@@ -3082,10 +3352,13 @@
         <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
@@ -3105,10 +3378,13 @@
         <v>168</v>
       </c>
       <c r="G91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>138</v>
       </c>
@@ -3128,10 +3404,13 @@
         <v>168</v>
       </c>
       <c r="G92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -3151,10 +3430,13 @@
         <v>168</v>
       </c>
       <c r="G93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -3174,10 +3456,13 @@
         <v>168</v>
       </c>
       <c r="G94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
@@ -3197,10 +3482,13 @@
         <v>168</v>
       </c>
       <c r="G95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>142</v>
       </c>
@@ -3220,10 +3508,13 @@
         <v>168</v>
       </c>
       <c r="G96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>143</v>
       </c>
@@ -3237,16 +3528,19 @@
         <v>167</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
         <v>168</v>
       </c>
       <c r="G97" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="H97" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>144</v>
       </c>
@@ -3266,10 +3560,13 @@
         <v>168</v>
       </c>
       <c r="G98" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>145</v>
       </c>
@@ -3289,10 +3586,13 @@
         <v>168</v>
       </c>
       <c r="G99" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -3312,10 +3612,13 @@
         <v>168</v>
       </c>
       <c r="G100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>147</v>
       </c>
@@ -3335,10 +3638,13 @@
         <v>168</v>
       </c>
       <c r="G101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>148</v>
       </c>
@@ -3358,10 +3664,13 @@
         <v>168</v>
       </c>
       <c r="G102" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H102" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>149</v>
       </c>
@@ -3381,10 +3690,13 @@
         <v>168</v>
       </c>
       <c r="G103" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -3404,10 +3716,13 @@
         <v>168</v>
       </c>
       <c r="G104" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>151</v>
       </c>
@@ -3427,10 +3742,13 @@
         <v>168</v>
       </c>
       <c r="G105" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>152</v>
       </c>
@@ -3450,10 +3768,13 @@
         <v>168</v>
       </c>
       <c r="G106" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>153</v>
       </c>
@@ -3473,10 +3794,13 @@
         <v>168</v>
       </c>
       <c r="G107" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>154</v>
       </c>
@@ -3496,10 +3820,13 @@
         <v>168</v>
       </c>
       <c r="G108" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H108" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>155</v>
       </c>
@@ -3519,10 +3846,13 @@
         <v>168</v>
       </c>
       <c r="G109" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>156</v>
       </c>
@@ -3542,10 +3872,13 @@
         <v>168</v>
       </c>
       <c r="G110" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>157</v>
       </c>
@@ -3565,10 +3898,13 @@
         <v>168</v>
       </c>
       <c r="G111" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H111" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>158</v>
       </c>
@@ -3588,10 +3924,13 @@
         <v>168</v>
       </c>
       <c r="G112" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H112" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>159</v>
       </c>
@@ -3611,10 +3950,13 @@
         <v>168</v>
       </c>
       <c r="G113" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H113" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>170</v>
       </c>
@@ -3628,16 +3970,19 @@
         <v>15</v>
       </c>
       <c r="E114" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G114" t="s">
         <v>177</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G114" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -3657,10 +4002,13 @@
         <v>168</v>
       </c>
       <c r="G115" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="H115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>171</v>
       </c>
@@ -3680,7 +4028,10 @@
         <v>168</v>
       </c>
       <c r="G116" t="s">
-        <v>186</v>
+        <v>175</v>
+      </c>
+      <c r="H116" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F9E988-847B-4479-A98C-0DA4CD1D0735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED881BA0-28F3-4E0E-9A3B-7317C135F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,9 +583,6 @@
     <t>plot_trend_status(df=all_haddock, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_abundance")</t>
   </si>
   <si>
-    <t>plot_trend_status(df=azmpdata::Discrete_occupations_sections, mpa=MPAs,parameter="nitrate", type="surface")</t>
-  </si>
-  <si>
     <t>plot_trend_status(df=bloom_df, mpa=MPAs,parameter="bloom_amplitude", type="surface")</t>
   </si>
   <si>
@@ -599,6 +596,9 @@
   </si>
   <si>
     <t>plot_trend_status(df=surface_height, mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="nitrate", type="surface")</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1004,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="C52" sqref="C52"/>
+      <selection pane="topRight" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2982,7 +2982,7 @@
         <v>167</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
         <v>168</v>
@@ -3034,7 +3034,7 @@
         <v>167</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
         <v>168</v>
@@ -3164,7 +3164,7 @@
         <v>24</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F83" t="s">
         <v>168</v>
@@ -3190,7 +3190,7 @@
         <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F84" t="s">
         <v>168</v>
@@ -3528,7 +3528,7 @@
         <v>167</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
         <v>168</v>
@@ -3970,7 +3970,7 @@
         <v>15</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>168</v>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED881BA0-28F3-4E0E-9A3B-7317C135F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9F010-0224-4DC1-A9EB-C6B3A9E2240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1004,10 +1004,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="K78" sqref="K78"/>
+      <selection pane="topRight" activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2861,7 +2861,7 @@
         <v>176</v>
       </c>
       <c r="H71">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E9F010-0224-4DC1-A9EB-C6B3A9E2240A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109178D-0F93-4DDF-BFBB-690B03756270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,10 +1004,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="L74" sqref="L74"/>
+      <selection pane="topRight" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2861,7 +2861,7 @@
         <v>176</v>
       </c>
       <c r="H71">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2991,7 +2991,7 @@
         <v>176</v>
       </c>
       <c r="H76">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3043,7 +3043,7 @@
         <v>178</v>
       </c>
       <c r="H78">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3173,7 +3173,7 @@
         <v>176</v>
       </c>
       <c r="H83">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3199,7 +3199,7 @@
         <v>176</v>
       </c>
       <c r="H84">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109178D-0F93-4DDF-BFBB-690B03756270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71950DC8-F21B-4109-89D4-D66AED3C2FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="197">
   <si>
     <t>indicators</t>
   </si>
@@ -599,13 +599,28 @@
   </si>
   <si>
     <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="nitrate", type="surface")</t>
+  </si>
+  <si>
+    <t>mpa_name</t>
+  </si>
+  <si>
+    <t>St. Anns Bank Marine Protected Area</t>
+  </si>
+  <si>
+    <t>Gully Marine Protected Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Musquash Estuary Marine Protected Area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western/Emerald Banks Conservation Area (Restricted Fisheries Zone) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +642,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -682,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,6 +719,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,3035 +1026,3383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="O73" sqref="O73"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="73.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="79.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="73.6328125" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>168</v>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>168</v>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>168</v>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>168</v>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>168</v>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>168</v>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>168</v>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>168</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>168</v>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>168</v>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>168</v>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>168</v>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>168</v>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>168</v>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>168</v>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>168</v>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>168</v>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>168</v>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>168</v>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>168</v>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>168</v>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>17</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>168</v>
+      <c r="F24">
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>17</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>168</v>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26" t="s">
-        <v>168</v>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>87</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>168</v>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>168</v>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>33</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>3</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>168</v>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>3</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>168</v>
+      <c r="F30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>91</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
-        <v>168</v>
+      <c r="F31">
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>3</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>168</v>
+      <c r="F32">
+        <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>3</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>168</v>
+      <c r="F33">
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>168</v>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>168</v>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I35" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>35</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>168</v>
+      <c r="F36">
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>97</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>168</v>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>98</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>168</v>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>35</v>
       </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>168</v>
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>24</v>
       </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
+      <c r="F40">
+        <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>101</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>24</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>168</v>
+      <c r="F41">
+        <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H41" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>24</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>168</v>
+      <c r="F42">
+        <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>103</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>24</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>168</v>
+      <c r="F43">
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>104</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>24</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" t="s">
-        <v>168</v>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>105</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>43</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>24</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45" t="s">
-        <v>168</v>
+      <c r="F45">
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H45" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>43</v>
       </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
-        <v>168</v>
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>107</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>43</v>
       </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" t="s">
-        <v>168</v>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H47" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>108</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" t="s">
-        <v>168</v>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>109</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>44</v>
       </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" t="s">
-        <v>168</v>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H49" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>110</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>168</v>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>44</v>
       </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>168</v>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>112</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s">
         <v>3</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>168</v>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>113</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>46</v>
       </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>168</v>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>114</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>23</v>
       </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
-        <v>168</v>
+      <c r="E54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H54" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>115</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" t="s">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>47</v>
       </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>168</v>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
-        <v>168</v>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>49</v>
       </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57" t="s">
-        <v>168</v>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>51</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" t="s">
         <v>5</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>33</v>
       </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
-        <v>168</v>
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59" t="s">
-        <v>168</v>
+      <c r="E59" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H59" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>53</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>44</v>
       </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60" t="s">
-        <v>168</v>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I60" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" t="s">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61" t="s">
-        <v>168</v>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I61" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>54</v>
       </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62" t="s">
-        <v>168</v>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>23</v>
       </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
-        <v>168</v>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>55</v>
       </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64" t="s">
-        <v>168</v>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H64" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>57</v>
       </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" t="s">
-        <v>168</v>
+      <c r="E65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>42</v>
       </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66" t="s">
-        <v>168</v>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H66" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>168</v>
+      <c r="E67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H67" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>181</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="G68" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" t="s">
         <v>176</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>726</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>182</v>
       </c>
-      <c r="F69" t="s">
-        <v>168</v>
-      </c>
       <c r="G69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" t="s">
         <v>176</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>726</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="E70" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="F70" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F70" t="s">
-        <v>168</v>
-      </c>
       <c r="G70" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="E71" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s">
         <v>183</v>
       </c>
-      <c r="F71" t="s">
-        <v>168</v>
-      </c>
       <c r="G71" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" t="s">
         <v>176</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>579</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" t="s">
-        <v>168</v>
+      <c r="F72">
+        <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>184</v>
       </c>
-      <c r="F73" t="s">
-        <v>168</v>
-      </c>
       <c r="G73" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" t="s">
         <v>176</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>726</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="E74" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F74" t="s">
-        <v>168</v>
-      </c>
       <c r="G74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H74" t="s">
         <v>176</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>726</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>168</v>
+      <c r="E75" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H75" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="6" t="s">
+      <c r="B76" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F76" t="s">
-        <v>168</v>
-      </c>
       <c r="G76" t="s">
+        <v>168</v>
+      </c>
+      <c r="H76" t="s">
         <v>176</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>579</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="6" t="s">
+      <c r="B77" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77" t="s">
-        <v>168</v>
+      <c r="F77">
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H77" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I77" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="B78" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F78" t="s">
-        <v>168</v>
-      </c>
       <c r="G78" t="s">
+        <v>168</v>
+      </c>
+      <c r="H78" t="s">
         <v>178</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>579</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="B79" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79" t="s">
-        <v>168</v>
+      <c r="F79">
+        <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="B80" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>168</v>
+      <c r="E80" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H80" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E81" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>168</v>
+      <c r="F81">
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="6" t="s">
+      <c r="B82" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82" t="s">
-        <v>168</v>
+      <c r="F82">
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H82" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="6" t="s">
+      <c r="B83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="F83" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="F83" t="s">
-        <v>168</v>
-      </c>
       <c r="G83" t="s">
+        <v>168</v>
+      </c>
+      <c r="H83" t="s">
         <v>176</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>579</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="6" t="s">
+      <c r="B84" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>186</v>
       </c>
-      <c r="F84" t="s">
-        <v>168</v>
-      </c>
       <c r="G84" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" t="s">
         <v>176</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>579</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="6" t="s">
+      <c r="B85" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="E85" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
+      <c r="F85">
+        <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" s="6" t="s">
+      <c r="B86" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
+      <c r="E86" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H86" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I86" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" s="6" t="s">
+      <c r="B87" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
+      <c r="E87" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H87" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I87" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="6" t="s">
+      <c r="B88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
+      <c r="E88" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H88" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I88" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="E89" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>168</v>
+      <c r="F89">
+        <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="6" t="s">
+      <c r="B90" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
+      <c r="F90">
+        <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="6" t="s">
+      <c r="B91" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
+      <c r="E91" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C92" s="6" t="s">
+      <c r="B92" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92" t="s">
-        <v>168</v>
+      <c r="F92">
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="6" t="s">
+      <c r="B93" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" t="s">
-        <v>168</v>
+      <c r="F93">
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H93" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C94" s="6" t="s">
+      <c r="B94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="9">
-        <v>0</v>
-      </c>
-      <c r="F94" t="s">
-        <v>168</v>
+      <c r="E94" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="9">
+        <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H94" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I94" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" s="6" t="s">
+      <c r="B95" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>168</v>
+      <c r="F95">
+        <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H95" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I95" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="6" t="s">
+      <c r="B96" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="E96" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96" t="s">
-        <v>168</v>
+      <c r="F96">
+        <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H96" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C97" s="6" t="s">
+      <c r="B97" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="E97" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="F97" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="F97" t="s">
-        <v>168</v>
-      </c>
       <c r="G97" t="s">
+        <v>168</v>
+      </c>
+      <c r="H97" t="s">
         <v>177</v>
       </c>
-      <c r="H97" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I97">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C98" s="6" t="s">
+      <c r="B98" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="E98" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>168</v>
+      <c r="F98">
+        <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" s="6" t="s">
+      <c r="B99" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="E99" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="s">
-        <v>168</v>
+      <c r="F99">
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C100" s="6" t="s">
+      <c r="B100" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="E100" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100" t="s">
-        <v>168</v>
+      <c r="F100">
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="6" t="s">
+      <c r="B101" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" t="s">
-        <v>168</v>
+      <c r="F101">
+        <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H101" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I101" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102" s="6" t="s">
+      <c r="B102" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" t="s">
-        <v>168</v>
+      <c r="E102" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H102" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I102" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="6" t="s">
+      <c r="B103" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>168</v>
+      <c r="E103" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H103" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="6" t="s">
+      <c r="B104" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="E104" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104" t="s">
-        <v>168</v>
+      <c r="F104">
+        <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H104" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I104" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="6" t="s">
+      <c r="B105" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="E105" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105" t="s">
-        <v>168</v>
+      <c r="F105">
+        <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H105" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" s="6" t="s">
+      <c r="B106" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="E106" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
-        <v>168</v>
+      <c r="F106">
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H106" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="6" t="s">
+      <c r="B107" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="E107" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>168</v>
+      <c r="F107">
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H107" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="6" t="s">
+      <c r="B108" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" t="s">
-        <v>168</v>
+      <c r="E108" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H108" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I108" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B109" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" s="6" t="s">
+      <c r="B109" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" t="s">
-        <v>168</v>
+      <c r="E109" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H109" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="6" t="s">
+      <c r="B110" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" t="s">
-        <v>168</v>
+      <c r="E110" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H110" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="6" t="s">
+      <c r="B111" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" t="s">
-        <v>168</v>
+      <c r="E111" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H111" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I111" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="6" t="s">
+      <c r="B112" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="E112" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" t="s">
-        <v>168</v>
+      <c r="F112">
+        <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H112" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I112" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="7" t="s">
+      <c r="B113" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="E113" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" t="s">
-        <v>168</v>
+      <c r="F113">
+        <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I113" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="6" t="s">
+      <c r="B114" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="10" t="s">
+      <c r="E114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F114" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="G114" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H114" t="s">
         <v>177</v>
       </c>
-      <c r="H114" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I114">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>60</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" s="7" t="s">
+      <c r="B115" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D115" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E115" s="9">
-        <v>0</v>
-      </c>
-      <c r="F115" t="s">
-        <v>168</v>
+      <c r="E115" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F115" s="9">
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H115" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116" s="6" t="s">
+      <c r="B116" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G116" t="s">
-        <v>175</v>
+      <c r="E116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="H116" t="s">
+        <v>175</v>
+      </c>
+      <c r="I116" t="s">
         <v>180</v>
       </c>
     </row>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71950DC8-F21B-4109-89D4-D66AED3C2FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA9D46-AD96-4980-9A95-F060CDE30E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="196">
   <si>
     <t>indicators</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>Key Fish Habitat</t>
-  </si>
-  <si>
-    <t>Social &amp; Cultural</t>
   </si>
   <si>
     <t>Structure and Function</t>
@@ -1028,10 +1025,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1047,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1059,16 +1056,16 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1076,7 +1073,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1091,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1105,7 +1102,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1120,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1134,7 +1131,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1149,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1163,7 +1160,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1178,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1192,7 +1189,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1207,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1221,7 +1218,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1236,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1250,7 +1247,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1265,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1279,7 +1276,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1294,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1308,7 +1305,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1323,13 +1320,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1337,7 +1334,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1352,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1366,7 +1363,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1381,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1395,7 +1392,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1410,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1424,7 +1421,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1439,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1453,7 +1450,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1468,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1482,7 +1479,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1497,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1511,7 +1508,7 @@
         <v>77</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1526,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1540,7 +1537,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1555,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1569,7 +1566,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1584,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1598,7 +1595,7 @@
         <v>80</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1613,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1627,7 +1624,7 @@
         <v>81</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1642,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1656,7 +1653,7 @@
         <v>82</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -1671,13 +1668,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1685,7 +1682,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1700,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1714,7 +1711,7 @@
         <v>84</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1729,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1743,7 +1740,7 @@
         <v>85</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1758,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1772,7 +1769,7 @@
         <v>86</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1787,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1801,7 +1798,7 @@
         <v>87</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1816,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1830,7 +1827,7 @@
         <v>88</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1845,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1859,7 +1856,7 @@
         <v>89</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1874,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1888,7 +1885,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -1903,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1917,7 +1914,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1932,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1946,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1961,13 +1958,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1975,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -1990,13 +1987,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -2004,7 +2001,7 @@
         <v>94</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -2019,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -2033,7 +2030,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -2048,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -2062,7 +2059,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -2077,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2091,7 +2088,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -2106,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -2120,7 +2117,7 @@
         <v>98</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -2135,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -2149,7 +2146,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -2164,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -2178,7 +2175,7 @@
         <v>100</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -2193,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -2207,7 +2204,7 @@
         <v>101</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -2222,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2236,7 +2233,7 @@
         <v>102</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -2251,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -2265,7 +2262,7 @@
         <v>103</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -2280,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -2294,7 +2291,7 @@
         <v>104</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -2309,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -2323,7 +2320,7 @@
         <v>105</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -2338,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -2352,7 +2349,7 @@
         <v>106</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -2367,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -2381,7 +2378,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -2396,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -2410,7 +2407,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -2425,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -2439,7 +2436,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -2454,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2468,7 +2465,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -2483,13 +2480,13 @@
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -2497,7 +2494,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -2512,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2526,7 +2523,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -2541,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -2555,7 +2552,7 @@
         <v>113</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -2570,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2584,7 +2581,7 @@
         <v>114</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -2599,13 +2596,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -2613,7 +2610,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -2628,13 +2625,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -2642,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2657,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -2671,7 +2668,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2686,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -2700,7 +2697,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2715,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -2729,7 +2726,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2744,13 +2741,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -2758,7 +2755,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2773,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -2787,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2802,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2816,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2831,13 +2828,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -2845,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2860,13 +2857,13 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I63" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2874,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2889,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -2903,7 +2900,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2918,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2932,7 +2929,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2947,13 +2944,13 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -2961,7 +2958,7 @@
         <v>11</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
@@ -2976,21 +2973,21 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>59</v>
@@ -2999,16 +2996,16 @@
         <v>160</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I68">
         <v>726</v>
@@ -3016,10 +3013,10 @@
     </row>
     <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>59</v>
@@ -3028,16 +3025,16 @@
         <v>160</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I69">
         <v>726</v>
@@ -3048,7 +3045,7 @@
         <v>116</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>59</v>
@@ -3057,19 +3054,19 @@
         <v>160</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3077,7 +3074,7 @@
         <v>117</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>59</v>
@@ -3089,13 +3086,13 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I71">
         <v>579</v>
@@ -3106,7 +3103,7 @@
         <v>118</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>59</v>
@@ -3115,19 +3112,19 @@
         <v>160</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I72" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3135,7 +3132,7 @@
         <v>119</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>59</v>
@@ -3147,13 +3144,13 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I73">
         <v>726</v>
@@ -3164,7 +3161,7 @@
         <v>120</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>59</v>
@@ -3173,16 +3170,16 @@
         <v>161</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I74">
         <v>726</v>
@@ -3193,7 +3190,7 @@
         <v>121</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>59</v>
@@ -3208,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3222,7 +3219,7 @@
         <v>122</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>59</v>
@@ -3231,16 +3228,16 @@
         <v>14</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I76">
         <v>579</v>
@@ -3251,7 +3248,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>59</v>
@@ -3260,19 +3257,19 @@
         <v>14</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3280,7 +3277,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>59</v>
@@ -3289,16 +3286,16 @@
         <v>14</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I78">
         <v>579</v>
@@ -3309,7 +3306,7 @@
         <v>125</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>59</v>
@@ -3318,19 +3315,19 @@
         <v>14</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3338,7 +3335,7 @@
         <v>126</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>59</v>
@@ -3353,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3367,7 +3364,7 @@
         <v>127</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>59</v>
@@ -3376,19 +3373,19 @@
         <v>14</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3396,7 +3393,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>59</v>
@@ -3405,19 +3402,19 @@
         <v>14</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3425,7 +3422,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>59</v>
@@ -3437,13 +3434,13 @@
         <v>24</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I83">
         <v>579</v>
@@ -3454,7 +3451,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>59</v>
@@ -3466,13 +3463,13 @@
         <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I84">
         <v>579</v>
@@ -3483,7 +3480,7 @@
         <v>131</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>59</v>
@@ -3492,19 +3489,19 @@
         <v>14</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I85" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3512,7 +3509,7 @@
         <v>132</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>59</v>
@@ -3527,13 +3524,13 @@
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3541,7 +3538,7 @@
         <v>133</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>59</v>
@@ -3556,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3570,7 +3567,7 @@
         <v>134</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>59</v>
@@ -3585,13 +3582,13 @@
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3599,7 +3596,7 @@
         <v>135</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>59</v>
@@ -3608,19 +3605,19 @@
         <v>162</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3628,7 +3625,7 @@
         <v>136</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>59</v>
@@ -3637,19 +3634,19 @@
         <v>37</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3657,7 +3654,7 @@
         <v>137</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>59</v>
@@ -3672,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3686,7 +3683,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>59</v>
@@ -3701,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3715,7 +3712,7 @@
         <v>139</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>59</v>
@@ -3724,19 +3721,19 @@
         <v>163</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3744,7 +3741,7 @@
         <v>140</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>59</v>
@@ -3759,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I94" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3773,7 +3770,7 @@
         <v>141</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>59</v>
@@ -3782,19 +3779,19 @@
         <v>163</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3802,7 +3799,7 @@
         <v>142</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>59</v>
@@ -3811,19 +3808,19 @@
         <v>163</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3831,25 +3828,25 @@
         <v>143</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E97" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="F97" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I97">
         <v>579</v>
@@ -3860,7 +3857,7 @@
         <v>144</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>59</v>
@@ -3869,19 +3866,19 @@
         <v>37</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3889,28 +3886,28 @@
         <v>145</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3918,7 +3915,7 @@
         <v>146</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>59</v>
@@ -3927,19 +3924,19 @@
         <v>33</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F100">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3947,7 +3944,7 @@
         <v>147</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>59</v>
@@ -3956,19 +3953,19 @@
         <v>33</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3976,7 +3973,7 @@
         <v>148</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>59</v>
@@ -3991,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I102" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4005,7 +4002,7 @@
         <v>149</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>59</v>
@@ -4020,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I103" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4034,28 +4031,28 @@
         <v>150</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4063,7 +4060,7 @@
         <v>151</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>59</v>
@@ -4072,19 +4069,19 @@
         <v>37</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4092,7 +4089,7 @@
         <v>152</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>59</v>
@@ -4101,19 +4098,19 @@
         <v>37</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4121,7 +4118,7 @@
         <v>153</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>59</v>
@@ -4136,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4150,7 +4147,7 @@
         <v>154</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>59</v>
@@ -4165,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4179,7 +4176,7 @@
         <v>155</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>59</v>
@@ -4194,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4208,7 +4205,7 @@
         <v>156</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>59</v>
@@ -4223,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="G110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4237,7 +4234,7 @@
         <v>157</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>59</v>
@@ -4252,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="G111" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4266,7 +4263,7 @@
         <v>158</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>59</v>
@@ -4275,19 +4272,19 @@
         <v>37</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I112" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -4295,7 +4292,7 @@
         <v>159</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>59</v>
@@ -4304,27 +4301,27 @@
         <v>22</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>59</v>
@@ -4336,13 +4333,13 @@
         <v>15</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I114">
         <v>579</v>
@@ -4353,7 +4350,7 @@
         <v>60</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>59</v>
@@ -4368,21 +4365,21 @@
         <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>59</v>
@@ -4397,13 +4394,13 @@
         <v>0</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA9D46-AD96-4980-9A95-F060CDE30E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337FC8AC-0CB5-4A63-A79D-30AA8962CFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="198">
   <si>
     <t>indicators</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t xml:space="preserve">Western/Emerald Banks Conservation Area (Restricted Fisheries Zone) </t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>direct</t>
   </si>
 </sst>
 </file>
@@ -1023,12 +1029,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="D103" sqref="D103"/>
+      <selection pane="topRight" activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,7 +1045,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,8 +1073,11 @@
       <c r="I1" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1096,8 +1105,11 @@
       <c r="I2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1125,8 +1137,11 @@
       <c r="I3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1154,8 +1169,11 @@
       <c r="I4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1178,13 +1196,16 @@
         <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1212,8 +1233,11 @@
       <c r="I6" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1241,8 +1265,11 @@
       <c r="I7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1270,8 +1297,11 @@
       <c r="I8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1299,8 +1329,11 @@
       <c r="I9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1328,8 +1361,11 @@
       <c r="I10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1357,8 +1393,11 @@
       <c r="I11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1386,8 +1425,11 @@
       <c r="I12" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1415,8 +1457,11 @@
       <c r="I13" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1444,8 +1489,11 @@
       <c r="I14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1473,8 +1521,11 @@
       <c r="I15" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1502,8 +1553,11 @@
       <c r="I16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1531,8 +1585,11 @@
       <c r="I17" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1560,8 +1617,11 @@
       <c r="I18" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1589,8 +1649,11 @@
       <c r="I19" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1618,8 +1681,11 @@
       <c r="I20" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1647,8 +1713,11 @@
       <c r="I21" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -1676,8 +1745,11 @@
       <c r="I22" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1705,8 +1777,11 @@
       <c r="I23" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1734,8 +1809,11 @@
       <c r="I24" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1763,8 +1841,11 @@
       <c r="I25" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1792,8 +1873,11 @@
       <c r="I26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1821,8 +1905,11 @@
       <c r="I27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1850,8 +1937,11 @@
       <c r="I28" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1879,8 +1969,11 @@
       <c r="I29" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="I30" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -1937,8 +2033,11 @@
       <c r="I31" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1966,8 +2065,11 @@
       <c r="I32" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -1995,8 +2097,11 @@
       <c r="I33" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2024,8 +2129,11 @@
       <c r="I34" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2053,8 +2161,11 @@
       <c r="I35" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -2082,8 +2193,11 @@
       <c r="I36" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2111,8 +2225,11 @@
       <c r="I37" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -2140,8 +2257,11 @@
       <c r="I38" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2169,8 +2289,11 @@
       <c r="I39" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2198,8 +2321,11 @@
       <c r="I40" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -2227,8 +2353,11 @@
       <c r="I41" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2256,8 +2385,11 @@
       <c r="I42" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2285,8 +2417,11 @@
       <c r="I43" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2314,8 +2449,11 @@
       <c r="I44" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -2343,8 +2481,11 @@
       <c r="I45" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2372,8 +2513,11 @@
       <c r="I46" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2401,8 +2545,11 @@
       <c r="I47" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2425,13 +2572,16 @@
         <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I48" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2454,13 +2604,16 @@
         <v>167</v>
       </c>
       <c r="H49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I49" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -2483,13 +2636,16 @@
         <v>167</v>
       </c>
       <c r="H50" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I50" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2517,8 +2673,11 @@
       <c r="I51" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2541,13 +2700,16 @@
         <v>167</v>
       </c>
       <c r="H52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2575,8 +2737,11 @@
       <c r="I53" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -2604,8 +2769,11 @@
       <c r="I54" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2633,8 +2801,11 @@
       <c r="I55" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2662,8 +2833,11 @@
       <c r="I56" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="J56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -2691,8 +2865,11 @@
       <c r="I57" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2720,8 +2897,11 @@
       <c r="I58" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J58" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -2749,8 +2929,11 @@
       <c r="I59" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J59" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -2778,8 +2961,11 @@
       <c r="I60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2807,8 +2993,11 @@
       <c r="I61" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J61" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2836,8 +3025,11 @@
       <c r="I62" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2865,8 +3057,11 @@
       <c r="I63" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2894,8 +3089,11 @@
       <c r="I64" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -2923,8 +3121,11 @@
       <c r="I65" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J65" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2952,8 +3153,11 @@
       <c r="I66" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
@@ -2981,8 +3185,11 @@
       <c r="I67" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>172</v>
       </c>
@@ -3010,8 +3217,11 @@
       <c r="I68">
         <v>726</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>171</v>
       </c>
@@ -3039,8 +3249,11 @@
       <c r="I69">
         <v>726</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
@@ -3068,8 +3281,11 @@
       <c r="I70" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J70" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
@@ -3097,8 +3313,11 @@
       <c r="I71">
         <v>579</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J71" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>118</v>
       </c>
@@ -3126,8 +3345,11 @@
       <c r="I72" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
@@ -3155,8 +3377,11 @@
       <c r="I73">
         <v>726</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -3184,8 +3409,11 @@
       <c r="I74">
         <v>726</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>121</v>
       </c>
@@ -3213,8 +3441,11 @@
       <c r="I75" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
@@ -3242,8 +3473,11 @@
       <c r="I76">
         <v>579</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
@@ -3266,13 +3500,16 @@
         <v>167</v>
       </c>
       <c r="H77" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I77" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
@@ -3300,8 +3537,11 @@
       <c r="I78">
         <v>579</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>125</v>
       </c>
@@ -3329,8 +3569,11 @@
       <c r="I79" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J79" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>126</v>
       </c>
@@ -3358,8 +3601,11 @@
       <c r="I80" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>127</v>
       </c>
@@ -3382,13 +3628,16 @@
         <v>167</v>
       </c>
       <c r="H81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I81" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
@@ -3411,13 +3660,16 @@
         <v>167</v>
       </c>
       <c r="H82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I82" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
@@ -3440,13 +3692,16 @@
         <v>167</v>
       </c>
       <c r="H83" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I83">
         <v>579</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>130</v>
       </c>
@@ -3469,13 +3724,16 @@
         <v>167</v>
       </c>
       <c r="H84" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I84">
         <v>579</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J84" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>131</v>
       </c>
@@ -3498,13 +3756,16 @@
         <v>167</v>
       </c>
       <c r="H85" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I85" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -3532,8 +3793,11 @@
       <c r="I86" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>133</v>
       </c>
@@ -3561,8 +3825,11 @@
       <c r="I87" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>134</v>
       </c>
@@ -3590,8 +3857,11 @@
       <c r="I88" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J88" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>135</v>
       </c>
@@ -3619,8 +3889,11 @@
       <c r="I89" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J89" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>136</v>
       </c>
@@ -3648,8 +3921,11 @@
       <c r="I90" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J90" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
@@ -3677,8 +3953,11 @@
       <c r="I91" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J91" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>138</v>
       </c>
@@ -3706,8 +3985,11 @@
       <c r="I92" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J92" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -3735,8 +4017,11 @@
       <c r="I93" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J93" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -3764,8 +4049,11 @@
       <c r="I94" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J94" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
@@ -3793,8 +4081,11 @@
       <c r="I95" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J95" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>142</v>
       </c>
@@ -3822,8 +4113,11 @@
       <c r="I96" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J96" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>143</v>
       </c>
@@ -3851,8 +4145,11 @@
       <c r="I97">
         <v>579</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>144</v>
       </c>
@@ -3880,8 +4177,11 @@
       <c r="I98" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>145</v>
       </c>
@@ -3909,8 +4209,11 @@
       <c r="I99" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -3938,8 +4241,11 @@
       <c r="I100" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>147</v>
       </c>
@@ -3962,13 +4268,16 @@
         <v>167</v>
       </c>
       <c r="H101" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I101" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>148</v>
       </c>
@@ -3996,8 +4305,11 @@
       <c r="I102" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J102" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>149</v>
       </c>
@@ -4025,8 +4337,11 @@
       <c r="I103" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J103" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -4054,8 +4369,11 @@
       <c r="I104" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J104" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>151</v>
       </c>
@@ -4083,8 +4401,11 @@
       <c r="I105" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J105" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>152</v>
       </c>
@@ -4112,8 +4433,11 @@
       <c r="I106" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J106" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>153</v>
       </c>
@@ -4141,8 +4465,11 @@
       <c r="I107" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J107" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>154</v>
       </c>
@@ -4170,8 +4497,11 @@
       <c r="I108" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>155</v>
       </c>
@@ -4199,8 +4529,11 @@
       <c r="I109" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J109" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>156</v>
       </c>
@@ -4228,8 +4561,11 @@
       <c r="I110" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J110" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>157</v>
       </c>
@@ -4257,8 +4593,11 @@
       <c r="I111" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J111" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>158</v>
       </c>
@@ -4286,8 +4625,11 @@
       <c r="I112" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>159</v>
       </c>
@@ -4315,8 +4657,11 @@
       <c r="I113" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>169</v>
       </c>
@@ -4344,8 +4689,11 @@
       <c r="I114">
         <v>579</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J114" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -4373,8 +4721,11 @@
       <c r="I115" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J115" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>170</v>
       </c>
@@ -4397,10 +4748,13 @@
         <v>167</v>
       </c>
       <c r="H116" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I116" t="s">
         <v>179</v>
+      </c>
+      <c r="J116" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337FC8AC-0CB5-4A63-A79D-30AA8962CFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B9029-67FF-4E0D-A59C-70D7DDC5D977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1029,12 +1029,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="H115" sqref="H115"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1045,7 +1045,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1428,8 +1428,9 @@
       <c r="J12" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1621,7 +1622,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -1748,8 +1749,9 @@
       <c r="J22" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1781,7 +1783,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1813,7 +1815,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -2610,7 +2612,7 @@
         <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -3093,7 +3095,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -3125,7 +3127,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3157,7 +3159,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
@@ -3188,8 +3190,9 @@
       <c r="J67" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>172</v>
       </c>
@@ -3220,8 +3223,9 @@
       <c r="J68" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>171</v>
       </c>
@@ -3252,8 +3256,9 @@
       <c r="J69" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
@@ -3284,8 +3289,9 @@
       <c r="J70" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
@@ -3316,8 +3322,9 @@
       <c r="J71" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>118</v>
       </c>
@@ -3348,8 +3355,9 @@
       <c r="J72" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
@@ -3380,8 +3388,9 @@
       <c r="J73" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -3412,8 +3421,9 @@
       <c r="J74" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>121</v>
       </c>
@@ -3444,8 +3454,9 @@
       <c r="J75" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
@@ -3476,8 +3487,9 @@
       <c r="J76" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
@@ -3508,8 +3520,9 @@
       <c r="J77" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
@@ -3540,8 +3553,9 @@
       <c r="J78" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>125</v>
       </c>
@@ -3572,8 +3586,9 @@
       <c r="J79" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>126</v>
       </c>
@@ -3604,8 +3619,9 @@
       <c r="J80" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>127</v>
       </c>
@@ -3636,8 +3652,9 @@
       <c r="J81" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
@@ -3668,8 +3685,9 @@
       <c r="J82" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
@@ -3700,8 +3718,9 @@
       <c r="J83" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>130</v>
       </c>
@@ -3732,8 +3751,9 @@
       <c r="J84" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>131</v>
       </c>
@@ -3762,10 +3782,11 @@
         <v>179</v>
       </c>
       <c r="J85" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="K85"/>
+    </row>
+    <row r="86" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -3796,8 +3817,9 @@
       <c r="J86" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K86"/>
+    </row>
+    <row r="87" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>133</v>
       </c>
@@ -3828,8 +3850,9 @@
       <c r="J87" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>134</v>
       </c>
@@ -3860,8 +3883,9 @@
       <c r="J88" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>135</v>
       </c>
@@ -3892,8 +3916,9 @@
       <c r="J89" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>136</v>
       </c>
@@ -3924,8 +3949,9 @@
       <c r="J90" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
@@ -3956,8 +3982,9 @@
       <c r="J91" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>138</v>
       </c>
@@ -3988,8 +4015,9 @@
       <c r="J92" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -4020,8 +4048,9 @@
       <c r="J93" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -4052,8 +4081,9 @@
       <c r="J94" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K94"/>
+    </row>
+    <row r="95" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
@@ -4084,8 +4114,9 @@
       <c r="J95" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>142</v>
       </c>
@@ -4116,8 +4147,9 @@
       <c r="J96" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>143</v>
       </c>
@@ -4148,8 +4180,9 @@
       <c r="J97" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>144</v>
       </c>
@@ -4180,8 +4213,9 @@
       <c r="J98" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>145</v>
       </c>
@@ -4212,8 +4246,9 @@
       <c r="J99" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K99"/>
+    </row>
+    <row r="100" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -4244,8 +4279,9 @@
       <c r="J100" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K100"/>
+    </row>
+    <row r="101" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>147</v>
       </c>
@@ -4274,10 +4310,11 @@
         <v>179</v>
       </c>
       <c r="J101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+      <c r="K101"/>
+    </row>
+    <row r="102" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>148</v>
       </c>
@@ -4308,8 +4345,9 @@
       <c r="J102" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K102"/>
+    </row>
+    <row r="103" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>149</v>
       </c>
@@ -4340,8 +4378,9 @@
       <c r="J103" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K103"/>
+    </row>
+    <row r="104" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -4372,8 +4411,9 @@
       <c r="J104" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K104"/>
+    </row>
+    <row r="105" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>151</v>
       </c>
@@ -4404,8 +4444,9 @@
       <c r="J105" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K105"/>
+    </row>
+    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>152</v>
       </c>
@@ -4436,8 +4477,9 @@
       <c r="J106" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K106"/>
+    </row>
+    <row r="107" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>153</v>
       </c>
@@ -4468,8 +4510,9 @@
       <c r="J107" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K107"/>
+    </row>
+    <row r="108" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>154</v>
       </c>
@@ -4500,8 +4543,9 @@
       <c r="J108" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K108"/>
+    </row>
+    <row r="109" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>155</v>
       </c>
@@ -4532,8 +4576,9 @@
       <c r="J109" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K109"/>
+    </row>
+    <row r="110" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>156</v>
       </c>
@@ -4564,8 +4609,9 @@
       <c r="J110" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K110"/>
+    </row>
+    <row r="111" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>157</v>
       </c>
@@ -4596,8 +4642,9 @@
       <c r="J111" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K111"/>
+    </row>
+    <row r="112" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>158</v>
       </c>
@@ -4628,8 +4675,9 @@
       <c r="J112" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K112"/>
+    </row>
+    <row r="113" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>159</v>
       </c>
@@ -4660,8 +4708,9 @@
       <c r="J113" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K113"/>
+    </row>
+    <row r="114" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>169</v>
       </c>
@@ -4692,8 +4741,9 @@
       <c r="J114" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K114"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -4725,7 +4775,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>170</v>
       </c>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B9029-67FF-4E0D-A59C-70D7DDC5D977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA847AAC-154A-41B7-B1DE-7F0AEB4654A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="199">
   <si>
     <t>indicators</t>
   </si>
@@ -617,6 +617,9 @@
   </si>
   <si>
     <t>direct</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=project_whale_sighting(), mpa=MPAs, type=NULL, parameter="whale_sightings")</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A68" sqref="A68"/>
-      <selection pane="topRight" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4693,17 +4695,17 @@
       <c r="E113" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F113">
-        <v>0</v>
+      <c r="F113" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="G113" t="s">
         <v>167</v>
       </c>
       <c r="H113" t="s">
-        <v>174</v>
-      </c>
-      <c r="I113" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="I113">
+        <v>1062</v>
       </c>
       <c r="J113" t="s">
         <v>196</v>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA847AAC-154A-41B7-B1DE-7F0AEB4654A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA3828A-036B-48BE-8D7A-B9A8AE76A046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
     <t>direct</t>
   </si>
   <si>
-    <t>plot_trend_status(df=project_whale_sighting(), mpa=MPAs, type=NULL, parameter="whale_sightings")</t>
+    <t>plot_trend_status(df=whale_sighting, mpa=MPAs, type=NULL, parameter="whale_sightings")</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA3828A-036B-48BE-8D7A-B9A8AE76A046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CE92B-2ED9-4AEE-89C3-FA2A18F3A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
     <t>direct</t>
   </si>
   <si>
-    <t>plot_trend_status(df=whale_sighting, mpa=MPAs, type=NULL, parameter="whale_sightings")</t>
+    <t>plot_trend_status(df=whale_biodiversity, mpa=MPAs, type=NULL, parameter="whale_sightings")</t>
   </si>
 </sst>
 </file>
@@ -1034,9 +1034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1CE92B-2ED9-4AEE-89C3-FA2A18F3A20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307D906-C1B8-4641-AB3C-CC5F3AA3B2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
     <t>direct</t>
   </si>
   <si>
-    <t>plot_trend_status(df=whale_biodiversity, mpa=MPAs, type=NULL, parameter="whale_sightings")</t>
+    <t>plot_trend_status(df=whale_biodiversity, mpa=MPAs, type=NULL, parameter="whale_biodiversity")</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
+      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8307D906-C1B8-4641-AB3C-CC5F3AA3B2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CF28F1-BBDD-45FB-A0FB-200BFBE87E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,39 +565,6 @@
     <t>project</t>
   </si>
   <si>
-    <t>plot_trend_status(df=gsdet, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_weight")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=gsdet, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="fish_length")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=zooplankton, mpa=MPAs, type=NULL, parameter="Zooplankton")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=all_haddock, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_biomass")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=all_haddock, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL, parameter="haddock_abundance")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=bloom_df, mpa=MPAs,parameter="bloom_amplitude", type="surface")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="salinity", type="surface", dataframe=TRUE)</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="chlorophyll", type="surface")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="temperature", type="surface", dataframe=TRUE)</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=surface_height, mpa=MPAs, type=NULL, parameter="sea_surface_height")</t>
-  </si>
-  <si>
-    <t>plot_trend_status(df=azmpdata::Discrete_Occupations_Sections, mpa=MPAs,parameter="nitrate", type="surface")</t>
-  </si>
-  <si>
     <t>mpa_name</t>
   </si>
   <si>
@@ -619,7 +586,40 @@
     <t>direct</t>
   </si>
   <si>
-    <t>plot_trend_status(df=whale_biodiversity, mpa=MPAs, type=NULL, parameter="whale_biodiversity")</t>
+    <t>plot_trend_status(df=bloom_df, mpa=MPAs, type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=zooplankton, mpa=MPAs, type=NULL)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=whale_biodiversity, mpa=MPAs, type=NULL)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=surface_height, mpa=MPAs, type=NULL)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=all_haddock, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=fish_weight, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=fish_length, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=haddock_biomass, mpa=MPAs, area="Western/Emerald Banks Conservation Area (Restricted Fisheries Zone)", type=NULL)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=nitrate, mpa=MPAs, type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=salinity, mpa=MPAs, type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=chlorophyll, mpa=MPAs, type="surface")</t>
+  </si>
+  <si>
+    <t>plot_trend_status(df=temperature, mpa=MPAs, type="surface", dataframe=TRUE)</t>
   </si>
 </sst>
 </file>
@@ -1034,9 +1034,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>179</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1084,7 +1084,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1108,7 +1108,7 @@
         <v>179</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1116,7 +1116,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1140,7 +1140,7 @@
         <v>179</v>
       </c>
       <c r="J3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1148,7 +1148,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1172,7 +1172,7 @@
         <v>179</v>
       </c>
       <c r="J4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1180,7 +1180,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>179</v>
       </c>
       <c r="J5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1212,7 +1212,7 @@
         <v>66</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1236,7 +1236,7 @@
         <v>179</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1244,7 +1244,7 @@
         <v>67</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>179</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1276,7 +1276,7 @@
         <v>68</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1300,7 +1300,7 @@
         <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1308,7 +1308,7 @@
         <v>69</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1332,7 +1332,7 @@
         <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1340,7 +1340,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1364,7 +1364,7 @@
         <v>179</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1372,7 +1372,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1396,7 +1396,7 @@
         <v>179</v>
       </c>
       <c r="J11" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1404,7 +1404,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
@@ -1428,7 +1428,7 @@
         <v>179</v>
       </c>
       <c r="J12" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K12"/>
     </row>
@@ -1437,7 +1437,7 @@
         <v>73</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1461,7 +1461,7 @@
         <v>179</v>
       </c>
       <c r="J13" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1469,7 +1469,7 @@
         <v>74</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1493,7 +1493,7 @@
         <v>179</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1501,7 +1501,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1525,7 +1525,7 @@
         <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1533,7 +1533,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1557,7 +1557,7 @@
         <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1565,7 +1565,7 @@
         <v>77</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1589,7 +1589,7 @@
         <v>179</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1597,7 +1597,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1621,7 +1621,7 @@
         <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1629,7 +1629,7 @@
         <v>79</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1653,7 +1653,7 @@
         <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1661,7 +1661,7 @@
         <v>80</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1685,7 +1685,7 @@
         <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1693,7 +1693,7 @@
         <v>81</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1717,7 +1717,7 @@
         <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1725,7 +1725,7 @@
         <v>82</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>2</v>
@@ -1749,7 +1749,7 @@
         <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K22"/>
     </row>
@@ -1758,7 +1758,7 @@
         <v>83</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1782,7 +1782,7 @@
         <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1790,7 +1790,7 @@
         <v>84</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1822,7 +1822,7 @@
         <v>85</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1846,7 +1846,7 @@
         <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1854,7 +1854,7 @@
         <v>86</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1878,7 +1878,7 @@
         <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -1886,7 +1886,7 @@
         <v>87</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1918,7 +1918,7 @@
         <v>88</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1942,7 +1942,7 @@
         <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1950,7 +1950,7 @@
         <v>89</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -1974,7 +1974,7 @@
         <v>179</v>
       </c>
       <c r="J29" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -1982,7 +1982,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
@@ -2006,7 +2006,7 @@
         <v>179</v>
       </c>
       <c r="J30" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2014,7 +2014,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -2038,7 +2038,7 @@
         <v>179</v>
       </c>
       <c r="J31" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2046,7 +2046,7 @@
         <v>92</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>179</v>
       </c>
       <c r="J32" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -2078,7 +2078,7 @@
         <v>93</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
@@ -2102,7 +2102,7 @@
         <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -2110,7 +2110,7 @@
         <v>94</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -2134,7 +2134,7 @@
         <v>179</v>
       </c>
       <c r="J34" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2142,7 +2142,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -2166,7 +2166,7 @@
         <v>179</v>
       </c>
       <c r="J35" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2174,7 +2174,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -2198,7 +2198,7 @@
         <v>179</v>
       </c>
       <c r="J36" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -2206,7 +2206,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -2230,7 +2230,7 @@
         <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -2238,7 +2238,7 @@
         <v>98</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -2262,7 +2262,7 @@
         <v>179</v>
       </c>
       <c r="J38" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2270,7 +2270,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
@@ -2294,7 +2294,7 @@
         <v>179</v>
       </c>
       <c r="J39" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -2302,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
@@ -2326,7 +2326,7 @@
         <v>179</v>
       </c>
       <c r="J40" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -2334,7 +2334,7 @@
         <v>101</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -2358,7 +2358,7 @@
         <v>179</v>
       </c>
       <c r="J41" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2366,7 +2366,7 @@
         <v>102</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -2390,7 +2390,7 @@
         <v>179</v>
       </c>
       <c r="J42" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -2398,7 +2398,7 @@
         <v>103</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -2422,7 +2422,7 @@
         <v>179</v>
       </c>
       <c r="J43" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -2430,7 +2430,7 @@
         <v>104</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -2454,7 +2454,7 @@
         <v>179</v>
       </c>
       <c r="J44" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -2462,7 +2462,7 @@
         <v>105</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -2486,7 +2486,7 @@
         <v>179</v>
       </c>
       <c r="J45" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2494,7 +2494,7 @@
         <v>106</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -2518,7 +2518,7 @@
         <v>179</v>
       </c>
       <c r="J46" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2526,7 +2526,7 @@
         <v>107</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -2550,7 +2550,7 @@
         <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2558,7 +2558,7 @@
         <v>108</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -2582,7 +2582,7 @@
         <v>179</v>
       </c>
       <c r="J48" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -2590,7 +2590,7 @@
         <v>109</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -2614,7 +2614,7 @@
         <v>179</v>
       </c>
       <c r="J49" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -2622,7 +2622,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -2646,7 +2646,7 @@
         <v>179</v>
       </c>
       <c r="J50" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -2654,7 +2654,7 @@
         <v>111</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -2678,7 +2678,7 @@
         <v>179</v>
       </c>
       <c r="J51" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
@@ -2686,7 +2686,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -2710,7 +2710,7 @@
         <v>179</v>
       </c>
       <c r="J52" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -2718,7 +2718,7 @@
         <v>113</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -2742,7 +2742,7 @@
         <v>179</v>
       </c>
       <c r="J53" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
@@ -2750,7 +2750,7 @@
         <v>114</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -2774,7 +2774,7 @@
         <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
@@ -2782,7 +2782,7 @@
         <v>115</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -2806,7 +2806,7 @@
         <v>179</v>
       </c>
       <c r="J55" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
@@ -2814,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2838,7 +2838,7 @@
         <v>179</v>
       </c>
       <c r="J56" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -2846,7 +2846,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2870,7 +2870,7 @@
         <v>179</v>
       </c>
       <c r="J57" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -2878,7 +2878,7 @@
         <v>51</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2902,7 +2902,7 @@
         <v>179</v>
       </c>
       <c r="J58" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -2910,7 +2910,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2934,7 +2934,7 @@
         <v>179</v>
       </c>
       <c r="J59" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -2942,7 +2942,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2966,7 +2966,7 @@
         <v>179</v>
       </c>
       <c r="J60" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -2974,7 +2974,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2998,7 +2998,7 @@
         <v>179</v>
       </c>
       <c r="J61" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -3006,7 +3006,7 @@
         <v>7</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3030,7 +3030,7 @@
         <v>179</v>
       </c>
       <c r="J62" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
@@ -3038,7 +3038,7 @@
         <v>8</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3062,7 +3062,7 @@
         <v>179</v>
       </c>
       <c r="J63" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -3070,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3094,7 +3094,7 @@
         <v>179</v>
       </c>
       <c r="J64" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3102,7 +3102,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3126,7 +3126,7 @@
         <v>179</v>
       </c>
       <c r="J65" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3134,7 +3134,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3158,7 +3158,7 @@
         <v>179</v>
       </c>
       <c r="J66" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -3166,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>5</v>
@@ -3190,7 +3190,7 @@
         <v>179</v>
       </c>
       <c r="J67" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K67"/>
     </row>
@@ -3199,7 +3199,7 @@
         <v>172</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>59</v>
@@ -3211,7 +3211,7 @@
         <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>167</v>
@@ -3223,7 +3223,7 @@
         <v>726</v>
       </c>
       <c r="J68" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K68"/>
     </row>
@@ -3232,7 +3232,7 @@
         <v>171</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>59</v>
@@ -3244,7 +3244,7 @@
         <v>166</v>
       </c>
       <c r="F69" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G69" t="s">
         <v>167</v>
@@ -3256,7 +3256,7 @@
         <v>726</v>
       </c>
       <c r="J69" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K69"/>
     </row>
@@ -3265,7 +3265,7 @@
         <v>116</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>59</v>
@@ -3289,7 +3289,7 @@
         <v>179</v>
       </c>
       <c r="J70" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K70"/>
     </row>
@@ -3298,7 +3298,7 @@
         <v>117</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>59</v>
@@ -3310,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G71" t="s">
         <v>167</v>
@@ -3322,7 +3322,7 @@
         <v>579</v>
       </c>
       <c r="J71" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K71"/>
     </row>
@@ -3331,7 +3331,7 @@
         <v>118</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>59</v>
@@ -3355,7 +3355,7 @@
         <v>179</v>
       </c>
       <c r="J72" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K72"/>
     </row>
@@ -3364,7 +3364,7 @@
         <v>119</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>59</v>
@@ -3376,7 +3376,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G73" t="s">
         <v>167</v>
@@ -3388,7 +3388,7 @@
         <v>726</v>
       </c>
       <c r="J73" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K73"/>
     </row>
@@ -3397,7 +3397,7 @@
         <v>120</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>59</v>
@@ -3409,7 +3409,7 @@
         <v>166</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G74" t="s">
         <v>167</v>
@@ -3421,7 +3421,7 @@
         <v>726</v>
       </c>
       <c r="J74" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K74"/>
     </row>
@@ -3430,7 +3430,7 @@
         <v>121</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>59</v>
@@ -3454,7 +3454,7 @@
         <v>179</v>
       </c>
       <c r="J75" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K75"/>
     </row>
@@ -3463,7 +3463,7 @@
         <v>122</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>59</v>
@@ -3475,7 +3475,7 @@
         <v>166</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G76" t="s">
         <v>167</v>
@@ -3487,7 +3487,7 @@
         <v>579</v>
       </c>
       <c r="J76" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K76"/>
     </row>
@@ -3496,7 +3496,7 @@
         <v>123</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>59</v>
@@ -3520,7 +3520,7 @@
         <v>179</v>
       </c>
       <c r="J77" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K77"/>
     </row>
@@ -3529,7 +3529,7 @@
         <v>124</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>59</v>
@@ -3541,7 +3541,7 @@
         <v>166</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G78" t="s">
         <v>167</v>
@@ -3553,7 +3553,7 @@
         <v>579</v>
       </c>
       <c r="J78" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K78"/>
     </row>
@@ -3562,7 +3562,7 @@
         <v>125</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>59</v>
@@ -3586,7 +3586,7 @@
         <v>179</v>
       </c>
       <c r="J79" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K79"/>
     </row>
@@ -3595,7 +3595,7 @@
         <v>126</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>59</v>
@@ -3619,7 +3619,7 @@
         <v>179</v>
       </c>
       <c r="J80" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K80"/>
     </row>
@@ -3628,7 +3628,7 @@
         <v>127</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>59</v>
@@ -3652,7 +3652,7 @@
         <v>179</v>
       </c>
       <c r="J81" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K81"/>
     </row>
@@ -3661,7 +3661,7 @@
         <v>128</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>59</v>
@@ -3685,7 +3685,7 @@
         <v>179</v>
       </c>
       <c r="J82" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K82"/>
     </row>
@@ -3694,7 +3694,7 @@
         <v>129</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>59</v>
@@ -3706,7 +3706,7 @@
         <v>24</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G83" t="s">
         <v>167</v>
@@ -3718,7 +3718,7 @@
         <v>579</v>
       </c>
       <c r="J83" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K83"/>
     </row>
@@ -3727,7 +3727,7 @@
         <v>130</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>59</v>
@@ -3739,7 +3739,7 @@
         <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G84" t="s">
         <v>167</v>
@@ -3751,7 +3751,7 @@
         <v>579</v>
       </c>
       <c r="J84" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K84"/>
     </row>
@@ -3760,7 +3760,7 @@
         <v>131</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>59</v>
@@ -3784,7 +3784,7 @@
         <v>179</v>
       </c>
       <c r="J85" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K85"/>
     </row>
@@ -3793,7 +3793,7 @@
         <v>132</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>59</v>
@@ -3817,7 +3817,7 @@
         <v>179</v>
       </c>
       <c r="J86" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K86"/>
     </row>
@@ -3826,7 +3826,7 @@
         <v>133</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>59</v>
@@ -3850,7 +3850,7 @@
         <v>179</v>
       </c>
       <c r="J87" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K87"/>
     </row>
@@ -3859,7 +3859,7 @@
         <v>134</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>59</v>
@@ -3883,7 +3883,7 @@
         <v>179</v>
       </c>
       <c r="J88" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K88"/>
     </row>
@@ -3892,7 +3892,7 @@
         <v>135</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>59</v>
@@ -3916,7 +3916,7 @@
         <v>179</v>
       </c>
       <c r="J89" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K89"/>
     </row>
@@ -3925,7 +3925,7 @@
         <v>136</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>59</v>
@@ -3949,7 +3949,7 @@
         <v>179</v>
       </c>
       <c r="J90" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K90"/>
     </row>
@@ -3958,7 +3958,7 @@
         <v>137</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>59</v>
@@ -3982,7 +3982,7 @@
         <v>179</v>
       </c>
       <c r="J91" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K91"/>
     </row>
@@ -3991,7 +3991,7 @@
         <v>138</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>59</v>
@@ -4015,7 +4015,7 @@
         <v>179</v>
       </c>
       <c r="J92" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K92"/>
     </row>
@@ -4024,7 +4024,7 @@
         <v>139</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>59</v>
@@ -4048,7 +4048,7 @@
         <v>179</v>
       </c>
       <c r="J93" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K93"/>
     </row>
@@ -4057,7 +4057,7 @@
         <v>140</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>59</v>
@@ -4081,7 +4081,7 @@
         <v>179</v>
       </c>
       <c r="J94" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K94"/>
     </row>
@@ -4090,7 +4090,7 @@
         <v>141</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>59</v>
@@ -4114,7 +4114,7 @@
         <v>179</v>
       </c>
       <c r="J95" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K95"/>
     </row>
@@ -4123,7 +4123,7 @@
         <v>142</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>59</v>
@@ -4147,7 +4147,7 @@
         <v>179</v>
       </c>
       <c r="J96" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K96"/>
     </row>
@@ -4156,7 +4156,7 @@
         <v>143</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>59</v>
@@ -4168,7 +4168,7 @@
         <v>166</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G97" t="s">
         <v>167</v>
@@ -4180,7 +4180,7 @@
         <v>579</v>
       </c>
       <c r="J97" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K97"/>
     </row>
@@ -4189,7 +4189,7 @@
         <v>144</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>59</v>
@@ -4213,7 +4213,7 @@
         <v>179</v>
       </c>
       <c r="J98" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K98"/>
     </row>
@@ -4222,7 +4222,7 @@
         <v>145</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>59</v>
@@ -4246,7 +4246,7 @@
         <v>179</v>
       </c>
       <c r="J99" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K99"/>
     </row>
@@ -4255,7 +4255,7 @@
         <v>146</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>59</v>
@@ -4279,7 +4279,7 @@
         <v>179</v>
       </c>
       <c r="J100" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K100"/>
     </row>
@@ -4288,7 +4288,7 @@
         <v>147</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>59</v>
@@ -4312,7 +4312,7 @@
         <v>179</v>
       </c>
       <c r="J101" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K101"/>
     </row>
@@ -4321,7 +4321,7 @@
         <v>148</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>59</v>
@@ -4345,7 +4345,7 @@
         <v>179</v>
       </c>
       <c r="J102" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K102"/>
     </row>
@@ -4354,7 +4354,7 @@
         <v>149</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>59</v>
@@ -4378,7 +4378,7 @@
         <v>179</v>
       </c>
       <c r="J103" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K103"/>
     </row>
@@ -4387,7 +4387,7 @@
         <v>150</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>59</v>
@@ -4411,7 +4411,7 @@
         <v>179</v>
       </c>
       <c r="J104" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K104"/>
     </row>
@@ -4420,7 +4420,7 @@
         <v>151</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>59</v>
@@ -4444,7 +4444,7 @@
         <v>179</v>
       </c>
       <c r="J105" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K105"/>
     </row>
@@ -4453,7 +4453,7 @@
         <v>152</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>59</v>
@@ -4477,7 +4477,7 @@
         <v>179</v>
       </c>
       <c r="J106" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K106"/>
     </row>
@@ -4486,7 +4486,7 @@
         <v>153</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>59</v>
@@ -4510,7 +4510,7 @@
         <v>179</v>
       </c>
       <c r="J107" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K107"/>
     </row>
@@ -4519,7 +4519,7 @@
         <v>154</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>59</v>
@@ -4543,7 +4543,7 @@
         <v>179</v>
       </c>
       <c r="J108" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K108"/>
     </row>
@@ -4552,7 +4552,7 @@
         <v>155</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>59</v>
@@ -4576,7 +4576,7 @@
         <v>179</v>
       </c>
       <c r="J109" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K109"/>
     </row>
@@ -4585,7 +4585,7 @@
         <v>156</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>59</v>
@@ -4609,7 +4609,7 @@
         <v>179</v>
       </c>
       <c r="J110" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K110"/>
     </row>
@@ -4618,7 +4618,7 @@
         <v>157</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>59</v>
@@ -4642,7 +4642,7 @@
         <v>179</v>
       </c>
       <c r="J111" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K111"/>
     </row>
@@ -4651,7 +4651,7 @@
         <v>158</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>59</v>
@@ -4675,7 +4675,7 @@
         <v>179</v>
       </c>
       <c r="J112" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K112"/>
     </row>
@@ -4684,7 +4684,7 @@
         <v>159</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>59</v>
@@ -4696,7 +4696,7 @@
         <v>166</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G113" t="s">
         <v>167</v>
@@ -4708,7 +4708,7 @@
         <v>1062</v>
       </c>
       <c r="J113" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K113"/>
     </row>
@@ -4717,7 +4717,7 @@
         <v>169</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>59</v>
@@ -4729,7 +4729,7 @@
         <v>15</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>167</v>
@@ -4741,7 +4741,7 @@
         <v>579</v>
       </c>
       <c r="J114" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K114"/>
     </row>
@@ -4750,7 +4750,7 @@
         <v>60</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>59</v>
@@ -4774,7 +4774,7 @@
         <v>179</v>
       </c>
       <c r="J115" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -4782,7 +4782,7 @@
         <v>170</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>59</v>
@@ -4806,7 +4806,7 @@
         <v>179</v>
       </c>
       <c r="J116" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicator_binning.xlsx
+++ b/data/indicator_binning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HarbinJ\Documents\GitHub\MarConsNetAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DaigleR\Documents\GitHub\MarConsNetAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CF28F1-BBDD-45FB-A0FB-200BFBE87E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BB3946-0AF7-4B2A-BB36-E3BB900CCC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="200">
   <si>
     <t>indicators</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>plot_trend_status(df=temperature, mpa=MPAs, type="surface", dataframe=TRUE)</t>
+  </si>
+  <si>
+    <t>Biomass of Haddock</t>
   </si>
 </sst>
 </file>
@@ -1032,22 +1035,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="73.6328125" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="73.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="79.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>72</v>
       </c>
@@ -1432,7 +1435,7 @@
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -1624,7 +1627,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
@@ -1753,7 +1756,7 @@
       </c>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>86</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>89</v>
       </c>
@@ -1977,7 +1980,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -2041,7 +2044,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2137,7 +2140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2233,7 +2236,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>100</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -2873,7 +2876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -2937,7 +2940,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -2969,7 +2972,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3097,7 +3100,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
@@ -3194,7 +3197,7 @@
       </c>
       <c r="K67"/>
     </row>
-    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>172</v>
       </c>
@@ -3227,7 +3230,7 @@
       </c>
       <c r="K68"/>
     </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>171</v>
       </c>
@@ -3260,7 +3263,7 @@
       </c>
       <c r="K69"/>
     </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>116</v>
       </c>
@@ -3293,7 +3296,7 @@
       </c>
       <c r="K70"/>
     </row>
-    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
@@ -3326,7 +3329,7 @@
       </c>
       <c r="K71"/>
     </row>
-    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>118</v>
       </c>
@@ -3359,7 +3362,7 @@
       </c>
       <c r="K72"/>
     </row>
-    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>119</v>
       </c>
@@ -3392,7 +3395,7 @@
       </c>
       <c r="K73"/>
     </row>
-    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>120</v>
       </c>
@@ -3425,7 +3428,7 @@
       </c>
       <c r="K74"/>
     </row>
-    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>121</v>
       </c>
@@ -3458,7 +3461,7 @@
       </c>
       <c r="K75"/>
     </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>122</v>
       </c>
@@ -3491,7 +3494,7 @@
       </c>
       <c r="K76"/>
     </row>
-    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
@@ -3524,7 +3527,7 @@
       </c>
       <c r="K77"/>
     </row>
-    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>124</v>
       </c>
@@ -3557,7 +3560,7 @@
       </c>
       <c r="K78"/>
     </row>
-    <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>125</v>
       </c>
@@ -3590,7 +3593,7 @@
       </c>
       <c r="K79"/>
     </row>
-    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>126</v>
       </c>
@@ -3623,7 +3626,7 @@
       </c>
       <c r="K80"/>
     </row>
-    <row r="81" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>127</v>
       </c>
@@ -3656,7 +3659,7 @@
       </c>
       <c r="K81"/>
     </row>
-    <row r="82" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
@@ -3689,7 +3692,7 @@
       </c>
       <c r="K82"/>
     </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>129</v>
       </c>
@@ -3722,7 +3725,7 @@
       </c>
       <c r="K83"/>
     </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>130</v>
       </c>
@@ -3755,7 +3758,7 @@
       </c>
       <c r="K84"/>
     </row>
-    <row r="85" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>131</v>
       </c>
@@ -3788,7 +3791,7 @@
       </c>
       <c r="K85"/>
     </row>
-    <row r="86" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>132</v>
       </c>
@@ -3821,7 +3824,7 @@
       </c>
       <c r="K86"/>
     </row>
-    <row r="87" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>133</v>
       </c>
@@ -3854,7 +3857,7 @@
       </c>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>134</v>
       </c>
@@ -3887,7 +3890,7 @@
       </c>
       <c r="K88"/>
     </row>
-    <row r="89" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>135</v>
       </c>
@@ -3920,7 +3923,7 @@
       </c>
       <c r="K89"/>
     </row>
-    <row r="90" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>136</v>
       </c>
@@ -3953,7 +3956,7 @@
       </c>
       <c r="K90"/>
     </row>
-    <row r="91" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
@@ -3986,7 +3989,7 @@
       </c>
       <c r="K91"/>
     </row>
-    <row r="92" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>138</v>
       </c>
@@ -4019,7 +4022,7 @@
       </c>
       <c r="K92"/>
     </row>
-    <row r="93" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
@@ -4052,7 +4055,7 @@
       </c>
       <c r="K93"/>
     </row>
-    <row r="94" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>140</v>
       </c>
@@ -4085,7 +4088,7 @@
       </c>
       <c r="K94"/>
     </row>
-    <row r="95" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
@@ -4118,7 +4121,7 @@
       </c>
       <c r="K95"/>
     </row>
-    <row r="96" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>142</v>
       </c>
@@ -4151,7 +4154,7 @@
       </c>
       <c r="K96"/>
     </row>
-    <row r="97" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>143</v>
       </c>
@@ -4184,7 +4187,7 @@
       </c>
       <c r="K97"/>
     </row>
-    <row r="98" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>144</v>
       </c>
@@ -4217,7 +4220,7 @@
       </c>
       <c r="K98"/>
     </row>
-    <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>145</v>
       </c>
@@ -4250,7 +4253,7 @@
       </c>
       <c r="K99"/>
     </row>
-    <row r="100" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>146</v>
       </c>
@@ -4283,7 +4286,7 @@
       </c>
       <c r="K100"/>
     </row>
-    <row r="101" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>147</v>
       </c>
@@ -4316,7 +4319,7 @@
       </c>
       <c r="K101"/>
     </row>
-    <row r="102" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>148</v>
       </c>
@@ -4349,7 +4352,7 @@
       </c>
       <c r="K102"/>
     </row>
-    <row r="103" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>149</v>
       </c>
@@ -4382,7 +4385,7 @@
       </c>
       <c r="K103"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>150</v>
       </c>
@@ -4415,7 +4418,7 @@
       </c>
       <c r="K104"/>
     </row>
-    <row r="105" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>151</v>
       </c>
@@ -4448,7 +4451,7 @@
       </c>
       <c r="K105"/>
     </row>
-    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>152</v>
       </c>
@@ -4481,7 +4484,7 @@
       </c>
       <c r="K106"/>
     </row>
-    <row r="107" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>153</v>
       </c>
@@ -4514,7 +4517,7 @@
       </c>
       <c r="K107"/>
     </row>
-    <row r="108" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>154</v>
       </c>
@@ -4547,7 +4550,7 @@
       </c>
       <c r="K108"/>
     </row>
-    <row r="109" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>155</v>
       </c>
@@ -4580,7 +4583,7 @@
       </c>
       <c r="K109"/>
     </row>
-    <row r="110" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>156</v>
       </c>
@@ -4613,7 +4616,7 @@
       </c>
       <c r="K110"/>
     </row>
-    <row r="111" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>157</v>
       </c>
@@ -4646,7 +4649,7 @@
       </c>
       <c r="K111"/>
     </row>
-    <row r="112" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>158</v>
       </c>
@@ -4679,7 +4682,7 @@
       </c>
       <c r="K112"/>
     </row>
-    <row r="113" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>159</v>
       </c>
@@ -4712,7 +4715,7 @@
       </c>
       <c r="K113"/>
     </row>
-    <row r="114" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>169</v>
       </c>
@@ -4745,7 +4748,7 @@
       </c>
       <c r="K114"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>170</v>
       </c>
@@ -4807,6 +4810,38 @@
       </c>
       <c r="J116" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>167</v>
+      </c>
+      <c r="H117" t="s">
+        <v>175</v>
+      </c>
+      <c r="I117">
+        <v>726</v>
+      </c>
+      <c r="J117" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
